--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_11_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27991.92655937094</v>
+        <v>49315.33618110048</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12154361.94758019</v>
+        <v>12091080.90725871</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21763105.80416813</v>
+        <v>21770861.22962646</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4074774.191900589</v>
+        <v>4077120.222780793</v>
       </c>
     </row>
     <row r="11">
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>89.76036546048012</v>
+        <v>98.41525156930325</v>
       </c>
       <c r="K2" t="n">
-        <v>84.5577670328716</v>
+        <v>97.52919776222207</v>
       </c>
       <c r="L2" t="n">
-        <v>68.55874285947689</v>
+        <v>84.65094969160234</v>
       </c>
       <c r="M2" t="n">
-        <v>45.09521380386133</v>
+        <v>63.00089454090767</v>
       </c>
       <c r="N2" t="n">
-        <v>41.28099931752749</v>
+        <v>59.47641268871214</v>
       </c>
       <c r="O2" t="n">
-        <v>52.11368889882766</v>
+        <v>69.29510178405982</v>
       </c>
       <c r="P2" t="n">
-        <v>78.45608620404292</v>
+        <v>93.12002459555268</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.3601098520762</v>
+        <v>117.3721168894014</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8055,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>71.99338681190339</v>
+        <v>77.14817768641285</v>
       </c>
       <c r="K3" t="n">
-        <v>46.07750428554138</v>
+        <v>54.88786293308858</v>
       </c>
       <c r="L3" t="n">
-        <v>16.33620635813517</v>
+        <v>28.18282082555037</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>13.82444031476771</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8.901750057177253</v>
+        <v>21.88313163507588</v>
       </c>
       <c r="P3" t="n">
-        <v>26.18458021020076</v>
+        <v>36.60328338528051</v>
       </c>
       <c r="Q3" t="n">
-        <v>66.66654338828052</v>
+        <v>73.63117054633832</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8137,22 +8139,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K4" t="n">
-        <v>72.51491935620855</v>
+        <v>77.82929286268265</v>
       </c>
       <c r="L4" t="n">
-        <v>63.34145120781625</v>
+        <v>70.14201962134344</v>
       </c>
       <c r="M4" t="n">
-        <v>63.5757640821251</v>
+        <v>70.74600996413862</v>
       </c>
       <c r="N4" t="n">
-        <v>54.32560202794129</v>
+        <v>61.32535548916809</v>
       </c>
       <c r="O4" t="n">
-        <v>70.18380116939908</v>
+        <v>76.6492064337699</v>
       </c>
       <c r="P4" t="n">
-        <v>78.82751991675428</v>
+        <v>84.35979105369728</v>
       </c>
       <c r="Q4" t="n">
         <v>67.95667671286152</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>83.82543222923999</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K5" t="n">
-        <v>75.6628405919713</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L5" t="n">
-        <v>57.5238000663409</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M5" t="n">
-        <v>32.81671374064987</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N5" t="n">
-        <v>28.80382028651667</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O5" t="n">
-        <v>40.33184255098618</v>
+        <v>52.11368889882766</v>
       </c>
       <c r="P5" t="n">
-        <v>68.40055292880919</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.80882313533421</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R5" t="n">
         <v>68.34507666790174</v>
@@ -8292,13 +8294,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>68.45858123773975</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K6" t="n">
-        <v>40.03595854374745</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L6" t="n">
-        <v>8.212602535240634</v>
+        <v>16.33620635813519</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P6" t="n">
-        <v>19.04014099716809</v>
+        <v>26.18458021020076</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.89067497778616</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8374,22 +8376,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K7" t="n">
-        <v>68.87068284861988</v>
+        <v>72.51491935620855</v>
       </c>
       <c r="L7" t="n">
-        <v>58.678083144819</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M7" t="n">
-        <v>58.65889631214456</v>
+        <v>63.5757640821251</v>
       </c>
       <c r="N7" t="n">
-        <v>49.52564638379106</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O7" t="n">
-        <v>65.75026523669263</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P7" t="n">
-        <v>75.03386400932396</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q7" t="n">
         <v>67.95667671286152</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>77.82547842006969</v>
+        <v>83.82543222923999</v>
       </c>
       <c r="K8" t="n">
-        <v>66.67046515959973</v>
+        <v>75.6628405919713</v>
       </c>
       <c r="L8" t="n">
-        <v>46.36796318225549</v>
+        <v>57.5238000663409</v>
       </c>
       <c r="M8" t="n">
-        <v>20.40369570745969</v>
+        <v>32.81671374064987</v>
       </c>
       <c r="N8" t="n">
-        <v>16.18994664413867</v>
+        <v>28.8038202865167</v>
       </c>
       <c r="O8" t="n">
-        <v>28.4209193578335</v>
+        <v>40.33184255098621</v>
       </c>
       <c r="P8" t="n">
-        <v>58.23485555240069</v>
+        <v>68.40055292880922</v>
       </c>
       <c r="Q8" t="n">
-        <v>91.1748077665065</v>
+        <v>98.80882313533421</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8529,13 +8531,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>64.88504985279644</v>
+        <v>68.45858123773974</v>
       </c>
       <c r="K9" t="n">
-        <v>33.92822422317468</v>
+        <v>40.03595854374745</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>8.212602535240634</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>11.81743037845671</v>
+        <v>19.04014099716808</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.06248420542693</v>
+        <v>61.89067497778616</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8611,22 +8613,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K10" t="n">
-        <v>65.18652165197315</v>
+        <v>68.87068284861988</v>
       </c>
       <c r="L10" t="n">
-        <v>53.96362522541675</v>
+        <v>58.678083144819</v>
       </c>
       <c r="M10" t="n">
-        <v>53.68816145191141</v>
+        <v>58.65889631214456</v>
       </c>
       <c r="N10" t="n">
-        <v>44.67310448839555</v>
+        <v>49.52564638379106</v>
       </c>
       <c r="O10" t="n">
-        <v>61.26815738962976</v>
+        <v>65.75026523669263</v>
       </c>
       <c r="P10" t="n">
-        <v>71.19864643810423</v>
+        <v>75.03386400932396</v>
       </c>
       <c r="Q10" t="n">
         <v>67.95667671286152</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K11" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L11" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P11" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q11" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,10 +8768,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K12" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8848,22 +8850,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K13" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L13" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M13" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N13" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O13" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P13" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K14" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L14" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P14" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q14" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R14" t="n">
         <v>68.34507666790174</v>
@@ -9003,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K15" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9085,22 +9087,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K16" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L16" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M16" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N16" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O16" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P16" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K17" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L17" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P17" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R17" t="n">
         <v>68.34507666790174</v>
@@ -9240,10 +9242,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K18" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9322,22 +9324,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K19" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L19" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M19" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N19" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O19" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P19" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q19" t="n">
         <v>67.95667671286152</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K20" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L20" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P20" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q20" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K21" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9559,22 +9561,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K22" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L22" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M22" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N22" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O22" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P22" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K23" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L23" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P23" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9714,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K24" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9796,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L25" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M25" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N25" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O25" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P25" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K26" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L26" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P26" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9951,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K27" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10033,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L28" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M28" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N28" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O28" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P28" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K29" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L29" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P29" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10188,10 +10190,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K30" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10270,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L31" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M31" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N31" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O31" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P31" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K32" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L32" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P32" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10425,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K33" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10507,22 +10509,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L34" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M34" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N34" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O34" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P34" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K35" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L35" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P35" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K36" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10744,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L37" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M37" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N37" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O37" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P37" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K38" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L38" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P38" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10899,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K39" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10981,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L40" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M40" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N40" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O40" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P40" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>68.00866030885531</v>
+        <v>67.9631523158304</v>
       </c>
       <c r="K41" t="n">
-        <v>51.9575995584641</v>
+        <v>51.88939487364996</v>
       </c>
       <c r="L41" t="n">
-        <v>28.1153524034757</v>
+        <v>28.03073846089299</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.932874909039015</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P41" t="n">
-        <v>41.60226048719778</v>
+        <v>41.52515647939825</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.68442155395667</v>
+        <v>78.62651965517443</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11136,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>59.03822023769386</v>
+        <v>59.01111598880918</v>
       </c>
       <c r="K42" t="n">
-        <v>23.93506114164498</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.16284495386269</v>
+        <v>49.12622445994228</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11218,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>59.15868518686609</v>
+        <v>59.1307418414051</v>
       </c>
       <c r="L43" t="n">
-        <v>46.25006986153873</v>
+        <v>46.21431199990579</v>
       </c>
       <c r="M43" t="n">
-        <v>45.55529884096921</v>
+        <v>45.51759718949943</v>
       </c>
       <c r="N43" t="n">
-        <v>36.73362317249983</v>
+        <v>36.69681798203466</v>
       </c>
       <c r="O43" t="n">
-        <v>53.93476135211139</v>
+        <v>53.9007658016241</v>
       </c>
       <c r="P43" t="n">
-        <v>64.92365924469388</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>68.00866030885531</v>
+        <v>63.5088548808309</v>
       </c>
       <c r="K44" t="n">
-        <v>51.9575995584641</v>
+        <v>45.21355767607923</v>
       </c>
       <c r="L44" t="n">
-        <v>28.1153524034757</v>
+        <v>19.74877209940095</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09414931448458219</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>8.932874909039015</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>41.60226048719778</v>
+        <v>33.97825842169817</v>
       </c>
       <c r="Q44" t="n">
-        <v>78.68442155395667</v>
+        <v>72.95911351212311</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11373,10 +11375,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>59.03822023769386</v>
+        <v>56.35816695151578</v>
       </c>
       <c r="K45" t="n">
-        <v>23.93506114164498</v>
+        <v>19.35442320295975</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.16284495386269</v>
+        <v>45.54183057008632</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11455,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>59.15868518686609</v>
+        <v>56.39566249074963</v>
       </c>
       <c r="L46" t="n">
-        <v>46.25006986153873</v>
+        <v>42.71435208592931</v>
       </c>
       <c r="M46" t="n">
-        <v>45.55529884096921</v>
+        <v>41.82738019080209</v>
       </c>
       <c r="N46" t="n">
-        <v>36.73362317249983</v>
+        <v>33.09434609552578</v>
       </c>
       <c r="O46" t="n">
-        <v>53.93476135211139</v>
+        <v>50.57329993746204</v>
       </c>
       <c r="P46" t="n">
-        <v>64.92365924469388</v>
+        <v>62.04734829405747</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -22559,13 +22561,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>413.8325483879333</v>
+        <v>413.934522038312</v>
       </c>
       <c r="H2" t="n">
-        <v>327.6751233740921</v>
+        <v>328.7194610210322</v>
       </c>
       <c r="I2" t="n">
-        <v>165.8152863627317</v>
+        <v>169.7466255189538</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.63898307599939</v>
+        <v>84.04458539159593</v>
       </c>
       <c r="S2" t="n">
-        <v>182.5711814737726</v>
+        <v>184.8949060317757</v>
       </c>
       <c r="T2" t="n">
-        <v>218.4903622093286</v>
+        <v>218.936751863861</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3959862152726</v>
+        <v>251.4041441073029</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22638,13 +22640,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>135.4762758837533</v>
+        <v>135.5308365967838</v>
       </c>
       <c r="H3" t="n">
-        <v>105.1802814191576</v>
+        <v>105.7072230423724</v>
       </c>
       <c r="I3" t="n">
-        <v>67.67269073688161</v>
+        <v>69.55120651446384</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.73707514632421</v>
+        <v>64.12462538166871</v>
       </c>
       <c r="S3" t="n">
-        <v>158.8025487711757</v>
+        <v>159.8159900855784</v>
       </c>
       <c r="T3" t="n">
-        <v>196.1780027799153</v>
+        <v>196.3979207416475</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6211945460638</v>
+        <v>224.6247840666579</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22717,16 +22719,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.431057567854</v>
+        <v>167.4767994368456</v>
       </c>
       <c r="H4" t="n">
-        <v>157.5573113517852</v>
+        <v>157.9639981506375</v>
       </c>
       <c r="I4" t="n">
-        <v>139.9692581943449</v>
+        <v>141.344840945473</v>
       </c>
       <c r="J4" t="n">
-        <v>56.42067761641638</v>
+        <v>59.65462775411975</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.36495098746442</v>
+        <v>45.19520876274868</v>
       </c>
       <c r="R4" t="n">
-        <v>152.7739102360676</v>
+        <v>154.8306309999973</v>
       </c>
       <c r="S4" t="n">
-        <v>214.366455857413</v>
+        <v>215.1636118833841</v>
       </c>
       <c r="T4" t="n">
-        <v>226.3732865346039</v>
+        <v>226.5687290657497</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0272595894867</v>
+        <v>286.0297546005226</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -22796,13 +22798,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>413.7626217824606</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H5" t="n">
-        <v>326.9589875257946</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I5" t="n">
-        <v>163.1194409052448</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>73.24645594497376</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S5" t="n">
-        <v>180.9777289515631</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T5" t="n">
-        <v>218.1842584938718</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3903920868348</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -22875,13 +22877,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>135.4388618514006</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H6" t="n">
-        <v>104.8189406330145</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.38453216684378</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>58.41412320779487</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S6" t="n">
-        <v>158.1075995298878</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T6" t="n">
-        <v>196.0271979740726</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6187330965669</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
@@ -22954,16 +22956,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3996908999483</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H7" t="n">
-        <v>157.278433158951</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I7" t="n">
-        <v>139.0259769449628</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J7" t="n">
-        <v>54.20305419548392</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.73842027765227</v>
+        <v>41.36495098746442</v>
       </c>
       <c r="R7" t="n">
-        <v>151.3635507864171</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S7" t="n">
-        <v>213.8198203812747</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T7" t="n">
-        <v>226.2392653171887</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U7" t="n">
-        <v>286.0255486803282</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V7" t="n">
         <v>252.9363510669392</v>
@@ -23033,13 +23035,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>413.6919290911495</v>
+        <v>413.7626217824606</v>
       </c>
       <c r="H8" t="n">
-        <v>326.2350060009042</v>
+        <v>326.9589875257946</v>
       </c>
       <c r="I8" t="n">
-        <v>160.3940609234714</v>
+        <v>163.1194409052448</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>68.80580617439929</v>
+        <v>73.24645594497376</v>
       </c>
       <c r="S8" t="n">
-        <v>179.3668192483101</v>
+        <v>180.9777289515631</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8748012376572</v>
+        <v>218.1842584938718</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3847366715299</v>
+        <v>251.3903920868348</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23112,13 +23114,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4010379269883</v>
+        <v>135.4388618514006</v>
       </c>
       <c r="H9" t="n">
-        <v>104.4536411525054</v>
+        <v>104.8189406330145</v>
       </c>
       <c r="I9" t="n">
-        <v>65.08226108510175</v>
+        <v>66.38453216684378</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.06572200612096</v>
+        <v>58.41412320779487</v>
       </c>
       <c r="S9" t="n">
-        <v>157.4050367233684</v>
+        <v>158.1075995298878</v>
       </c>
       <c r="T9" t="n">
-        <v>195.8747410155859</v>
+        <v>196.0271979740726</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6162446804871</v>
+        <v>224.6187330965669</v>
       </c>
       <c r="V9" t="n">
         <v>231.9087310396551</v>
@@ -23191,16 +23193,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3679805923089</v>
+        <v>167.3996908999483</v>
       </c>
       <c r="H10" t="n">
-        <v>156.9964996964846</v>
+        <v>157.278433158951</v>
       </c>
       <c r="I10" t="n">
-        <v>138.0723615115898</v>
+        <v>139.0259769449628</v>
       </c>
       <c r="J10" t="n">
-        <v>51.9611354453805</v>
+        <v>54.20305419548392</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.08311442614108</v>
+        <v>38.73842027765228</v>
       </c>
       <c r="R10" t="n">
-        <v>149.9377400447414</v>
+        <v>151.3635507864171</v>
       </c>
       <c r="S10" t="n">
-        <v>213.2671962017777</v>
+        <v>213.8198203812747</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1037758209114</v>
+        <v>226.2392653171887</v>
       </c>
       <c r="U10" t="n">
-        <v>286.0238190271842</v>
+        <v>286.0255486803282</v>
       </c>
       <c r="V10" t="n">
         <v>252.9363510669392</v>
@@ -23270,13 +23272,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H11" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I11" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S11" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23349,13 +23351,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H12" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I12" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S12" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T12" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -23428,16 +23430,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H13" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I13" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J13" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R13" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S13" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T13" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
@@ -23507,13 +23509,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H14" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I14" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S14" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23586,13 +23588,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H15" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I15" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S15" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T15" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U15" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V15" t="n">
         <v>231.9087310396551</v>
@@ -23665,16 +23667,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H16" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I16" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J16" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R16" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S16" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T16" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23744,13 +23746,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G17" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H17" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I17" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S17" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
@@ -23823,13 +23825,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H18" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I18" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S18" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T18" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -23902,16 +23904,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H19" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I19" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J19" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R19" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S19" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T19" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23981,13 +23983,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H20" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I20" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S20" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V20" t="n">
         <v>328.5332215225193</v>
@@ -24060,13 +24062,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H21" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I21" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S21" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T21" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V21" t="n">
         <v>231.9087310396551</v>
@@ -24139,16 +24141,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H22" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I22" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J22" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R22" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S22" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T22" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V22" t="n">
         <v>252.9363510669392</v>
@@ -24218,13 +24220,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H23" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I23" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S23" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24297,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H24" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I24" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S24" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T24" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -24376,16 +24378,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H25" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I25" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J25" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R25" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S25" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T25" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24455,13 +24457,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H26" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I26" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S26" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24534,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H27" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I27" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S27" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T27" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24613,16 +24615,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H28" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I28" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J28" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R28" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S28" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T28" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24692,13 +24694,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H29" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I29" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S29" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24771,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H30" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I30" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S30" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T30" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V30" t="n">
         <v>231.9087310396551</v>
@@ -24850,16 +24852,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H31" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I31" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J31" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R31" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S31" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T31" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24929,13 +24931,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H32" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I32" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S32" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -25008,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H33" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I33" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S33" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T33" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25087,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H34" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I34" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J34" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R34" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S34" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V34" t="n">
         <v>252.9363510669392</v>
@@ -25166,13 +25168,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H35" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I35" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S35" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25245,13 +25247,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H36" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I36" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S36" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T36" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25324,16 +25326,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H37" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I37" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J37" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R37" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S37" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T37" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25403,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H38" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I38" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S38" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25482,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H39" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I39" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S39" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -25561,16 +25563,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H40" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I40" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J40" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R40" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S40" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25640,13 +25642,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5757291341046</v>
       </c>
       <c r="H41" t="n">
-        <v>325.0504643907895</v>
+        <v>325.0449731908182</v>
       </c>
       <c r="I41" t="n">
-        <v>155.9349333341686</v>
+        <v>155.914262079498</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>61.54024172510172</v>
+        <v>61.50656062267781</v>
       </c>
       <c r="S41" t="n">
-        <v>176.7311310324684</v>
+        <v>176.7189127271495</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3684830735388</v>
+        <v>217.3661359256932</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3754406749663</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
@@ -25719,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3388654688392</v>
       </c>
       <c r="H42" t="n">
-        <v>103.8559567918696</v>
+        <v>103.853186096171</v>
       </c>
       <c r="I42" t="n">
-        <v>62.95155162506948</v>
+        <v>62.94167425847812</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.22338785118887</v>
+        <v>52.20557587647965</v>
       </c>
       <c r="S42" t="n">
-        <v>156.2555393267778</v>
+        <v>156.2502105818714</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6252987233859</v>
+        <v>195.6241423794499</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6121543871878</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25798,16 +25800,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>167.316097805833</v>
+        <v>167.315857291905</v>
       </c>
       <c r="H43" t="n">
-        <v>156.5352145585445</v>
+        <v>156.5330761710749</v>
       </c>
       <c r="I43" t="n">
-        <v>136.5121046237514</v>
+        <v>136.5048717139874</v>
       </c>
       <c r="J43" t="n">
-        <v>48.29302244153561</v>
+        <v>48.2760181068212</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.73863855132878</v>
+        <v>31.71849878958847</v>
       </c>
       <c r="R43" t="n">
-        <v>147.6049013001077</v>
+        <v>147.5940869193057</v>
       </c>
       <c r="S43" t="n">
-        <v>212.3630207320116</v>
+        <v>212.3588292301925</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8820948241508</v>
+        <v>225.8810671737309</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0209759380713</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25877,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.5762653186495</v>
+        <v>413.5232476844809</v>
       </c>
       <c r="H44" t="n">
-        <v>325.0504643907895</v>
+        <v>324.5074975448595</v>
       </c>
       <c r="I44" t="n">
-        <v>155.9349333341686</v>
+        <v>153.8909709928803</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>61.54024172510172</v>
+        <v>58.20987276275306</v>
       </c>
       <c r="S44" t="n">
-        <v>176.7311310324684</v>
+        <v>175.5229916938495</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3684830735388</v>
+        <v>217.1363983799654</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3754835697299</v>
+        <v>251.3712421589964</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25956,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3391523528625</v>
+        <v>135.3107854177504</v>
       </c>
       <c r="H45" t="n">
-        <v>103.8559567918696</v>
+        <v>103.5819919185507</v>
       </c>
       <c r="I45" t="n">
-        <v>62.95155162506948</v>
+        <v>61.97488302581699</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.22338785118887</v>
+        <v>50.46214954660056</v>
       </c>
       <c r="S45" t="n">
-        <v>156.2555393267778</v>
+        <v>155.7286359487097</v>
       </c>
       <c r="T45" t="n">
-        <v>195.6252987233859</v>
+        <v>195.5109600682632</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6121732611367</v>
+        <v>224.6103070154057</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -26035,16 +26037,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.316097805833</v>
+        <v>167.2923159203422</v>
       </c>
       <c r="H46" t="n">
-        <v>156.5352145585445</v>
+        <v>156.3237719766351</v>
       </c>
       <c r="I46" t="n">
-        <v>136.5121046237514</v>
+        <v>135.7969184673545</v>
       </c>
       <c r="J46" t="n">
-        <v>48.29302244153561</v>
+        <v>46.61164313733391</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.73863855132878</v>
+        <v>29.74722993991026</v>
       </c>
       <c r="R46" t="n">
-        <v>147.6049013001077</v>
+        <v>146.5355812488564</v>
       </c>
       <c r="S46" t="n">
-        <v>212.3630207320116</v>
+        <v>211.9485673275942</v>
       </c>
       <c r="T46" t="n">
-        <v>225.8820948241508</v>
+        <v>225.7804813134173</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0209890570129</v>
+        <v>286.0196918632588</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>353967.582751543</v>
+        <v>355093.2440313045</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>353306.2158743877</v>
+        <v>353967.582751543</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352742.5348785197</v>
+        <v>353306.2158743877</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352074.3164507922</v>
+        <v>352073.5004289274</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352074.3164507922</v>
+        <v>352195.3512080333</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68961.0344745055</v>
+        <v>68444.35716004448</v>
       </c>
       <c r="C2" t="n">
+        <v>68961.03447450549</v>
+      </c>
+      <c r="D2" t="n">
         <v>69315.33669464638</v>
       </c>
-      <c r="D2" t="n">
-        <v>69673.52049764892</v>
-      </c>
       <c r="E2" t="n">
-        <v>70259.56255002017</v>
+        <v>70262.2792752696</v>
       </c>
       <c r="F2" t="n">
-        <v>70259.56255002019</v>
+        <v>70262.27927526961</v>
       </c>
       <c r="G2" t="n">
-        <v>70259.56255002019</v>
+        <v>70262.2792752696</v>
       </c>
       <c r="H2" t="n">
-        <v>70259.56255002017</v>
+        <v>70262.27927526958</v>
       </c>
       <c r="I2" t="n">
-        <v>70259.56255002017</v>
+        <v>70262.2792752696</v>
       </c>
       <c r="J2" t="n">
-        <v>70259.56255002019</v>
+        <v>70262.27927526958</v>
       </c>
       <c r="K2" t="n">
-        <v>70259.56255002017</v>
+        <v>70262.27927526958</v>
       </c>
       <c r="L2" t="n">
-        <v>70259.56255002019</v>
+        <v>70262.27927526961</v>
       </c>
       <c r="M2" t="n">
-        <v>70259.56255002019</v>
+        <v>70262.2792752696</v>
       </c>
       <c r="N2" t="n">
-        <v>70259.56255002019</v>
+        <v>70262.2792752696</v>
       </c>
       <c r="O2" t="n">
-        <v>70259.56255002019</v>
+        <v>70262.2792752696</v>
       </c>
       <c r="P2" t="n">
-        <v>70259.56255002019</v>
+        <v>70528.19085487777</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245024.1243283586</v>
+        <v>220581.1694567361</v>
       </c>
       <c r="C3" t="n">
-        <v>15839.23256567123</v>
+        <v>23098.28073304243</v>
       </c>
       <c r="D3" t="n">
-        <v>15059.8748709676</v>
+        <v>14896.67331995398</v>
       </c>
       <c r="E3" t="n">
-        <v>23114.99967716443</v>
+        <v>37349.84094884061</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>8688.935337042501</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20655.91612476609</v>
+        <v>24278.85109108922</v>
       </c>
       <c r="C4" t="n">
-        <v>18282.08851693</v>
+        <v>20655.91612476608</v>
       </c>
       <c r="D4" t="n">
-        <v>15987.18580654966</v>
+        <v>18282.08851693001</v>
       </c>
       <c r="E4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="F4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="G4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="H4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="I4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="J4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="K4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="L4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="M4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="N4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="O4" t="n">
-        <v>12486.43079236095</v>
+        <v>12472.48393179068</v>
       </c>
       <c r="P4" t="n">
-        <v>12486.43079236095</v>
+        <v>11309.09540945729</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>38617.84971036801</v>
+      </c>
+      <c r="C5" t="n">
         <v>39170.82732295871</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>39550.0218227859</v>
       </c>
-      <c r="D5" t="n">
-        <v>39933.37061459347</v>
-      </c>
       <c r="E5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="F5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="G5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="H5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="I5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="J5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="K5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="L5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="M5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="N5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="O5" t="n">
-        <v>6932.98633691737</v>
+        <v>6935.893931658688</v>
       </c>
       <c r="P5" t="n">
-        <v>6932.98633691737</v>
+        <v>7220.487712605606</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235889.8333015778</v>
+        <v>-215033.5130981488</v>
       </c>
       <c r="C6" t="n">
-        <v>-4356.00621074075</v>
+        <v>-13963.98970626173</v>
       </c>
       <c r="D6" t="n">
-        <v>-1306.910794461808</v>
+        <v>-3413.446965023511</v>
       </c>
       <c r="E6" t="n">
-        <v>27725.14574357742</v>
+        <v>13504.06046297962</v>
       </c>
       <c r="F6" t="n">
-        <v>50840.14542074187</v>
+        <v>50853.90141182025</v>
       </c>
       <c r="G6" t="n">
-        <v>50840.14542074187</v>
+        <v>50853.90141182023</v>
       </c>
       <c r="H6" t="n">
-        <v>50840.14542074186</v>
+        <v>50853.90141182022</v>
       </c>
       <c r="I6" t="n">
-        <v>50840.14542074186</v>
+        <v>50853.90141182023</v>
       </c>
       <c r="J6" t="n">
-        <v>50840.14542074187</v>
+        <v>50853.90141182022</v>
       </c>
       <c r="K6" t="n">
-        <v>50840.14542074186</v>
+        <v>50853.90141182022</v>
       </c>
       <c r="L6" t="n">
-        <v>50840.14542074187</v>
+        <v>50853.90141182025</v>
       </c>
       <c r="M6" t="n">
-        <v>50840.14542074187</v>
+        <v>50853.90141182023</v>
       </c>
       <c r="N6" t="n">
-        <v>50840.14542074187</v>
+        <v>50853.90141182023</v>
       </c>
       <c r="O6" t="n">
-        <v>50840.14542074187</v>
+        <v>50853.90141182023</v>
       </c>
       <c r="P6" t="n">
-        <v>50840.14542074187</v>
+        <v>43309.67239577237</v>
       </c>
     </row>
   </sheetData>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>228.9105371728443</v>
+      </c>
+      <c r="C3" t="n">
         <v>254.2764827045282</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>271.6707258158669</v>
       </c>
-      <c r="D3" t="n">
-        <v>289.2555327795172</v>
-      </c>
       <c r="E3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="F3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="G3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="H3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="I3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="J3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="K3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="L3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="M3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="N3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="O3" t="n">
-        <v>318.0268961888702</v>
+        <v>318.1602720944352</v>
       </c>
       <c r="P3" t="n">
-        <v>318.0268961888702</v>
+        <v>331.2150326883306</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.2764827045282</v>
+        <v>228.9105371728443</v>
       </c>
       <c r="C3" t="n">
-        <v>17.39424311133868</v>
+        <v>25.36594553168391</v>
       </c>
       <c r="D3" t="n">
-        <v>17.58480696365029</v>
+        <v>17.39424311133865</v>
       </c>
       <c r="E3" t="n">
-        <v>28.771363409353</v>
+        <v>46.4895462785683</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>13.05476059389537</v>
       </c>
     </row>
     <row r="4">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.0222170158976</v>
+        <v>0.9202433655189716</v>
       </c>
       <c r="H2" t="n">
-        <v>10.4687800140613</v>
+        <v>9.42444236712117</v>
       </c>
       <c r="I2" t="n">
-        <v>39.40902150539227</v>
+        <v>35.47768234917019</v>
       </c>
       <c r="J2" t="n">
-        <v>86.75939145303902</v>
+        <v>78.10450534421588</v>
       </c>
       <c r="K2" t="n">
-        <v>130.0298377359844</v>
+        <v>117.058407006634</v>
       </c>
       <c r="L2" t="n">
-        <v>161.3135117362607</v>
+        <v>145.2213049041352</v>
       </c>
       <c r="M2" t="n">
-        <v>179.4923635927296</v>
+        <v>161.5866828556833</v>
       </c>
       <c r="N2" t="n">
-        <v>182.3967376891487</v>
+        <v>164.201324317964</v>
       </c>
       <c r="O2" t="n">
-        <v>172.2320672373169</v>
+        <v>155.0506543520847</v>
       </c>
       <c r="P2" t="n">
-        <v>146.9960846573449</v>
+        <v>132.3321462658351</v>
       </c>
       <c r="Q2" t="n">
-        <v>110.387937775512</v>
+        <v>99.3759307381869</v>
       </c>
       <c r="R2" t="n">
-        <v>64.21183962487768</v>
+        <v>57.80623730928114</v>
       </c>
       <c r="S2" t="n">
-        <v>23.29377024976658</v>
+        <v>20.97004569176358</v>
       </c>
       <c r="T2" t="n">
-        <v>4.474754987091747</v>
+        <v>4.0283653325593</v>
       </c>
       <c r="U2" t="n">
-        <v>0.08177736127180799</v>
+        <v>0.0736194692415177</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5469343212889852</v>
+        <v>0.4923736082585709</v>
       </c>
       <c r="H3" t="n">
-        <v>5.2822341029752</v>
+        <v>4.755292479760408</v>
       </c>
       <c r="I3" t="n">
-        <v>18.83085272859006</v>
+        <v>16.95233695100782</v>
       </c>
       <c r="J3" t="n">
-        <v>51.67329918809664</v>
+        <v>46.51850831358718</v>
       </c>
       <c r="K3" t="n">
-        <v>88.31789871445864</v>
+        <v>79.50754006691143</v>
       </c>
       <c r="L3" t="n">
-        <v>118.7543139272422</v>
+        <v>106.907699459827</v>
       </c>
       <c r="M3" t="n">
-        <v>138.5806830739679</v>
+        <v>124.7562427592001</v>
       </c>
       <c r="N3" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>130.1295882761561</v>
+        <v>117.1482066982574</v>
       </c>
       <c r="P3" t="n">
-        <v>104.4404670187712</v>
+        <v>94.02176384369149</v>
       </c>
       <c r="Q3" t="n">
-        <v>69.81568634559046</v>
+        <v>62.85105918753266</v>
       </c>
       <c r="R3" t="n">
-        <v>33.95790461476701</v>
+        <v>30.57035437942251</v>
       </c>
       <c r="S3" t="n">
-        <v>10.15906513446864</v>
+        <v>9.145623820065993</v>
       </c>
       <c r="T3" t="n">
-        <v>2.204529128353409</v>
+        <v>1.984611166621169</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03598252113743325</v>
+        <v>0.03239300054332704</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4585313622540672</v>
+        <v>0.4127894932625061</v>
       </c>
       <c r="H4" t="n">
-        <v>4.076760657131619</v>
+        <v>3.670073858279375</v>
       </c>
       <c r="I4" t="n">
-        <v>13.78928860305868</v>
+        <v>12.41370585193064</v>
       </c>
       <c r="J4" t="n">
-        <v>32.41816731136255</v>
+        <v>29.18421717365919</v>
       </c>
       <c r="K4" t="n">
-        <v>53.27300736006343</v>
+        <v>47.95863385358934</v>
       </c>
       <c r="L4" t="n">
-        <v>68.17110816639106</v>
+        <v>61.37053975286388</v>
       </c>
       <c r="M4" t="n">
-        <v>71.87687526678981</v>
+        <v>64.70662938477629</v>
       </c>
       <c r="N4" t="n">
-        <v>70.16780382566108</v>
+        <v>63.16805036443428</v>
       </c>
       <c r="O4" t="n">
-        <v>64.81132382114764</v>
+        <v>58.3459185567768</v>
       </c>
       <c r="P4" t="n">
-        <v>55.45728403116462</v>
+        <v>49.92501289422163</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.39574888838376</v>
+        <v>34.5654911130995</v>
       </c>
       <c r="R4" t="n">
-        <v>20.61723743371469</v>
+        <v>18.56051666978504</v>
       </c>
       <c r="S4" t="n">
-        <v>7.990951104009514</v>
+        <v>7.1937950780384</v>
       </c>
       <c r="T4" t="n">
-        <v>1.959179456903741</v>
+        <v>1.76373692575798</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0250108015774946</v>
+        <v>0.02251579054159127</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.092143621370318</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H5" t="n">
-        <v>11.18491586235877</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I5" t="n">
-        <v>42.10486696287924</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J5" t="n">
-        <v>92.69432468427914</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K5" t="n">
-        <v>138.9247641768847</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L5" t="n">
-        <v>172.3484545293967</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M5" t="n">
-        <v>191.770863655941</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N5" t="n">
-        <v>194.8739167201595</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O5" t="n">
-        <v>184.0139135851584</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P5" t="n">
-        <v>157.0516179325786</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q5" t="n">
-        <v>117.939224492254</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R5" t="n">
-        <v>68.60436675590331</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S5" t="n">
-        <v>24.88722277197616</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T5" t="n">
-        <v>4.780858702548571</v>
+        <v>4.474754987091746</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08737148970962545</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5843483536416759</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H6" t="n">
-        <v>5.643574889118293</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I6" t="n">
-        <v>20.11901129862788</v>
+        <v>18.83085272859006</v>
       </c>
       <c r="J6" t="n">
-        <v>55.20810476226028</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K6" t="n">
-        <v>94.35944445625256</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L6" t="n">
-        <v>126.8779177501367</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M6" t="n">
         <v>138.5806830739679</v>
@@ -31379,25 +31381,25 @@
         <v>128.05816928125</v>
       </c>
       <c r="O6" t="n">
-        <v>139.0313383333333</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P6" t="n">
-        <v>111.5849062318039</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q6" t="n">
-        <v>74.59155475608482</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R6" t="n">
-        <v>36.28085655329635</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S6" t="n">
-        <v>10.85401437575656</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T6" t="n">
-        <v>2.355333934196053</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03844397063432081</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4898980301597599</v>
+        <v>0.4585313622540672</v>
       </c>
       <c r="H7" t="n">
-        <v>4.355638849965868</v>
+        <v>4.076760657131619</v>
       </c>
       <c r="I7" t="n">
-        <v>14.73256985244078</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J7" t="n">
-        <v>34.63579073229502</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K7" t="n">
-        <v>56.9172438676521</v>
+        <v>53.27300736006343</v>
       </c>
       <c r="L7" t="n">
-        <v>72.83447622938832</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M7" t="n">
-        <v>76.79374303677035</v>
+        <v>71.87687526678981</v>
       </c>
       <c r="N7" t="n">
-        <v>74.96775946981131</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O7" t="n">
-        <v>69.24485975385409</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P7" t="n">
-        <v>59.25093993859494</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.0222795981959</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R7" t="n">
-        <v>22.0275968833652</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S7" t="n">
-        <v>8.537586580147813</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T7" t="n">
-        <v>2.093200674318973</v>
+        <v>1.959179456903741</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02672171073598693</v>
+        <v>0.0250108015774946</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.162836312681475</v>
+        <v>1.092143621370318</v>
       </c>
       <c r="H8" t="n">
-        <v>11.90889738724916</v>
+        <v>11.18491586235878</v>
       </c>
       <c r="I8" t="n">
-        <v>44.83024694465261</v>
+        <v>42.10486696287924</v>
       </c>
       <c r="J8" t="n">
-        <v>98.69427849344945</v>
+        <v>92.69432468427914</v>
       </c>
       <c r="K8" t="n">
-        <v>147.9171396092563</v>
+        <v>138.9247641768847</v>
       </c>
       <c r="L8" t="n">
-        <v>183.5042914134821</v>
+        <v>172.3484545293967</v>
       </c>
       <c r="M8" t="n">
-        <v>204.1838816891312</v>
+        <v>191.770863655941</v>
       </c>
       <c r="N8" t="n">
-        <v>207.4877903625375</v>
+        <v>194.8739167201595</v>
       </c>
       <c r="O8" t="n">
-        <v>195.9248367783111</v>
+        <v>184.0139135851583</v>
       </c>
       <c r="P8" t="n">
-        <v>167.2173153089871</v>
+        <v>157.0516179325786</v>
       </c>
       <c r="Q8" t="n">
-        <v>125.5732398610817</v>
+        <v>117.939224492254</v>
       </c>
       <c r="R8" t="n">
-        <v>73.04501652647778</v>
+        <v>68.60436675590331</v>
       </c>
       <c r="S8" t="n">
-        <v>26.49813247522914</v>
+        <v>24.88722277197616</v>
       </c>
       <c r="T8" t="n">
-        <v>5.090315958763161</v>
+        <v>4.780858702548571</v>
       </c>
       <c r="U8" t="n">
-        <v>0.093026905014518</v>
+        <v>0.08737148970962544</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6221722780540558</v>
+        <v>0.5843483536416759</v>
       </c>
       <c r="H9" t="n">
-        <v>6.00887436962733</v>
+        <v>5.643574889118293</v>
       </c>
       <c r="I9" t="n">
-        <v>21.42128238036991</v>
+        <v>20.11901129862788</v>
       </c>
       <c r="J9" t="n">
-        <v>58.78163614720359</v>
+        <v>55.20810476226028</v>
       </c>
       <c r="K9" t="n">
-        <v>100.4671787768253</v>
+        <v>94.35944445625256</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>126.8779177501367</v>
       </c>
       <c r="M9" t="n">
         <v>138.5806830739679</v>
@@ -31619,22 +31621,22 @@
         <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>118.8076168505153</v>
+        <v>111.5849062318039</v>
       </c>
       <c r="Q9" t="n">
-        <v>79.41974552844405</v>
+        <v>74.59155475608482</v>
       </c>
       <c r="R9" t="n">
-        <v>38.62925775497025</v>
+        <v>36.28085655329635</v>
       </c>
       <c r="S9" t="n">
-        <v>11.55657718227599</v>
+        <v>10.85401437575656</v>
       </c>
       <c r="T9" t="n">
-        <v>2.507790892682794</v>
+        <v>2.355333934196052</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04093238671408263</v>
+        <v>0.03844397063432081</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5216083377991293</v>
+        <v>0.4898980301597599</v>
       </c>
       <c r="H10" t="n">
-        <v>4.637572312432262</v>
+        <v>4.355638849965868</v>
       </c>
       <c r="I10" t="n">
-        <v>15.68618528581382</v>
+        <v>14.73256985244078</v>
       </c>
       <c r="J10" t="n">
-        <v>36.87770948239844</v>
+        <v>34.63579073229502</v>
       </c>
       <c r="K10" t="n">
-        <v>60.60140506429882</v>
+        <v>56.9172438676521</v>
       </c>
       <c r="L10" t="n">
-        <v>77.54893414879056</v>
+        <v>72.83447622938832</v>
       </c>
       <c r="M10" t="n">
-        <v>81.7644778970035</v>
+        <v>76.79374303677035</v>
       </c>
       <c r="N10" t="n">
-        <v>79.82030136520682</v>
+        <v>74.96775946981131</v>
       </c>
       <c r="O10" t="n">
-        <v>73.72696760091695</v>
+        <v>69.24485975385409</v>
       </c>
       <c r="P10" t="n">
-        <v>63.08615750981467</v>
+        <v>59.25093993859494</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.6775854497071</v>
+        <v>41.02227959819589</v>
       </c>
       <c r="R10" t="n">
-        <v>23.45340762504084</v>
+        <v>22.0275968833652</v>
       </c>
       <c r="S10" t="n">
-        <v>9.090210759644823</v>
+        <v>8.537586580147812</v>
       </c>
       <c r="T10" t="n">
-        <v>2.228690170596279</v>
+        <v>2.093200674318973</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02845136387995254</v>
+        <v>0.02672171073598693</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H11" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I11" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J11" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K11" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L11" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M11" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N11" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O11" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P11" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R11" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S11" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T11" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H12" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I12" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J12" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K12" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L12" t="n">
         <v>135.0905202853774</v>
@@ -31859,19 +31861,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R12" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S12" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T12" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H13" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I13" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J13" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K13" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L13" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M13" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N13" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O13" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P13" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R13" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S13" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T13" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H14" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I14" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J14" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K14" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L14" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M14" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N14" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O14" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P14" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R14" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S14" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T14" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H15" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I15" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J15" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K15" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L15" t="n">
         <v>135.0905202853774</v>
@@ -32096,19 +32098,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R15" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S15" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T15" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H16" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I16" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J16" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K16" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L16" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M16" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N16" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O16" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P16" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R16" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S16" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T16" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H17" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I17" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J17" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K17" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L17" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M17" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N17" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O17" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P17" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R17" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S17" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T17" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H18" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I18" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J18" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K18" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L18" t="n">
         <v>135.0905202853774</v>
@@ -32333,19 +32335,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R18" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S18" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T18" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H19" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I19" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J19" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K19" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L19" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M19" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N19" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O19" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P19" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R19" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S19" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T19" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H20" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I20" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J20" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K20" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L20" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M20" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N20" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O20" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P20" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R20" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S20" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T20" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H21" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I21" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J21" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K21" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L21" t="n">
         <v>135.0905202853774</v>
@@ -32570,19 +32572,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R21" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S21" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T21" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H22" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I22" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J22" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K22" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L22" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M22" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N22" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O22" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P22" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R22" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S22" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T22" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H23" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I23" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J23" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K23" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L23" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M23" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N23" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O23" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P23" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R23" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S23" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T23" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H24" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I24" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J24" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K24" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L24" t="n">
         <v>135.0905202853774</v>
@@ -32807,19 +32809,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R24" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S24" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T24" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H25" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I25" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J25" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K25" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L25" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M25" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N25" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O25" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P25" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R25" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S25" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T25" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I26" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K26" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L26" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M26" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N26" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O26" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P26" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R26" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S26" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T26" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H27" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I27" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J27" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K27" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L27" t="n">
         <v>135.0905202853774</v>
@@ -33044,19 +33046,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R27" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S27" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T27" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H28" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I28" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J28" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K28" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L28" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M28" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N28" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O28" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P28" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R28" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S28" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T28" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I29" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K29" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L29" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M29" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N29" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O29" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P29" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R29" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S29" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T29" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H30" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I30" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J30" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K30" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L30" t="n">
         <v>135.0905202853774</v>
@@ -33281,19 +33283,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R30" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S30" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T30" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H31" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I31" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J31" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K31" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L31" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M31" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N31" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O31" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P31" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R31" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S31" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T31" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H32" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I32" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K32" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L32" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M32" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N32" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O32" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P32" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R32" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S32" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T32" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H33" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I33" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J33" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K33" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L33" t="n">
         <v>135.0905202853774</v>
@@ -33518,19 +33520,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R33" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S33" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T33" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H34" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I34" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J34" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K34" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L34" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M34" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N34" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O34" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P34" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R34" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S34" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T34" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H35" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I35" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K35" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L35" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M35" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N35" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O35" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P35" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R35" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S35" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T35" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H36" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I36" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J36" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K36" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L36" t="n">
         <v>135.0905202853774</v>
@@ -33755,19 +33757,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R36" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S36" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T36" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H37" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I37" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J37" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K37" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L37" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M37" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N37" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O37" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P37" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R37" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S37" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T37" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H38" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I38" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J38" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K38" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L38" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M38" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N38" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O38" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P38" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R38" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S38" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T38" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H39" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I39" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J39" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K39" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L39" t="n">
         <v>135.0905202853774</v>
@@ -33992,19 +33994,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R39" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S39" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T39" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H40" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I40" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J40" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K40" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L40" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M40" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N40" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O40" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P40" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R40" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S40" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T40" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.278500085181387</v>
+        <v>1.279036269726372</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09343899736388</v>
+        <v>13.09893019733521</v>
       </c>
       <c r="I41" t="n">
-        <v>49.28937453395546</v>
+        <v>49.31004578862599</v>
       </c>
       <c r="J41" t="n">
-        <v>108.5110966046638</v>
+        <v>108.5566045976887</v>
       </c>
       <c r="K41" t="n">
-        <v>162.6300052103919</v>
+        <v>162.6982098952061</v>
       </c>
       <c r="L41" t="n">
-        <v>201.7569021922619</v>
+        <v>201.8415161348446</v>
       </c>
       <c r="M41" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N41" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O41" t="n">
-        <v>215.4128812271055</v>
+        <v>215.5032222908594</v>
       </c>
       <c r="P41" t="n">
-        <v>183.84991037419</v>
+        <v>183.9270143819896</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.0636260736316</v>
+        <v>138.1215279724138</v>
       </c>
       <c r="R41" t="n">
-        <v>80.31058097577535</v>
+        <v>80.34426207819926</v>
       </c>
       <c r="S41" t="n">
-        <v>29.13382069107088</v>
+        <v>29.14603899638972</v>
       </c>
       <c r="T41" t="n">
-        <v>5.596634122881524</v>
+        <v>5.598981270727195</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1023229015781097</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.6843447362031247</v>
       </c>
       <c r="H42" t="n">
-        <v>6.606558730263135</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I42" t="n">
-        <v>23.55199184040218</v>
+        <v>23.56186920699355</v>
       </c>
       <c r="J42" t="n">
-        <v>64.62846576230616</v>
+        <v>64.65557001119085</v>
       </c>
       <c r="K42" t="n">
-        <v>110.460341858355</v>
+        <v>110.5066673368002</v>
       </c>
       <c r="L42" t="n">
         <v>135.0905202853774</v>
@@ -34229,19 +34231,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.31938478000829</v>
+        <v>87.3560052739287</v>
       </c>
       <c r="R42" t="n">
-        <v>42.47159190990234</v>
+        <v>42.48940388461157</v>
       </c>
       <c r="S42" t="n">
-        <v>12.70607457886664</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T42" t="n">
-        <v>2.757233184882751</v>
+        <v>2.758389528818734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.04502268001336349</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H43" t="n">
-        <v>5.098857450372381</v>
+        <v>5.100995837841931</v>
       </c>
       <c r="I43" t="n">
-        <v>17.24644217365218</v>
+        <v>17.25367508341626</v>
       </c>
       <c r="J43" t="n">
-        <v>40.54582248624333</v>
+        <v>40.56282682095774</v>
       </c>
       <c r="K43" t="n">
-        <v>66.62924152940589</v>
+        <v>66.65718487486689</v>
       </c>
       <c r="L43" t="n">
-        <v>85.26248951266858</v>
+        <v>85.29824737430152</v>
       </c>
       <c r="M43" t="n">
-        <v>89.8973405079457</v>
+        <v>89.93504215941549</v>
       </c>
       <c r="N43" t="n">
-        <v>87.75978268110254</v>
+        <v>87.79658787156771</v>
       </c>
       <c r="O43" t="n">
-        <v>81.06036363843532</v>
+        <v>81.09435918892261</v>
       </c>
       <c r="P43" t="n">
-        <v>69.36114470322502</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.0220613245194</v>
+        <v>48.04220108625971</v>
       </c>
       <c r="R43" t="n">
-        <v>25.78624636967461</v>
+        <v>25.79706075047665</v>
       </c>
       <c r="S43" t="n">
-        <v>9.994386229410884</v>
+        <v>9.998577731230032</v>
       </c>
       <c r="T43" t="n">
-        <v>2.450371167356868</v>
+        <v>2.451398817776795</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.278500085181387</v>
+        <v>1.331517719350072</v>
       </c>
       <c r="H44" t="n">
-        <v>13.09343899736388</v>
+        <v>13.63640584329393</v>
       </c>
       <c r="I44" t="n">
-        <v>49.28937453395546</v>
+        <v>51.33333687524369</v>
       </c>
       <c r="J44" t="n">
-        <v>108.5110966046638</v>
+        <v>113.0109020326882</v>
       </c>
       <c r="K44" t="n">
-        <v>162.6300052103919</v>
+        <v>169.3740470927768</v>
       </c>
       <c r="L44" t="n">
-        <v>201.7569021922619</v>
+        <v>210.1234824963366</v>
       </c>
       <c r="M44" t="n">
-        <v>224.4934280821063</v>
+        <v>224.5875773965909</v>
       </c>
       <c r="N44" t="n">
         <v>223.6777370066762</v>
       </c>
       <c r="O44" t="n">
-        <v>215.4128812271055</v>
+        <v>224.3457561361446</v>
       </c>
       <c r="P44" t="n">
-        <v>183.84991037419</v>
+        <v>191.4739124396896</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.0636260736316</v>
+        <v>143.7889341154651</v>
       </c>
       <c r="R44" t="n">
-        <v>80.31058097577535</v>
+        <v>83.64094993812401</v>
       </c>
       <c r="S44" t="n">
-        <v>29.13382069107088</v>
+        <v>30.34196002968979</v>
       </c>
       <c r="T44" t="n">
-        <v>5.596634122881524</v>
+        <v>5.828718816454942</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1022800068145109</v>
+        <v>0.1065214175480057</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6840578521798339</v>
+        <v>0.7124247872918809</v>
       </c>
       <c r="H45" t="n">
-        <v>6.606558730263135</v>
+        <v>6.880523603582114</v>
       </c>
       <c r="I45" t="n">
-        <v>23.55199184040218</v>
+        <v>24.52866043965468</v>
       </c>
       <c r="J45" t="n">
-        <v>64.62846576230616</v>
+        <v>67.30851904848424</v>
       </c>
       <c r="K45" t="n">
-        <v>110.460341858355</v>
+        <v>115.0409797970403</v>
       </c>
       <c r="L45" t="n">
         <v>135.0905202853774</v>
@@ -34466,19 +34468,19 @@
         <v>130.625047228972</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.31938478000829</v>
+        <v>90.94039916378466</v>
       </c>
       <c r="R45" t="n">
-        <v>42.47159190990234</v>
+        <v>44.23283021449065</v>
       </c>
       <c r="S45" t="n">
-        <v>12.70607457886664</v>
+        <v>13.23297795693471</v>
       </c>
       <c r="T45" t="n">
-        <v>2.757233184882751</v>
+        <v>2.871571840005431</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04500380606446278</v>
+        <v>0.0468700517955185</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5734911242750117</v>
+        <v>0.597273009765842</v>
       </c>
       <c r="H46" t="n">
-        <v>5.098857450372381</v>
+        <v>5.310300032281762</v>
       </c>
       <c r="I46" t="n">
-        <v>17.24644217365218</v>
+        <v>17.96162833004914</v>
       </c>
       <c r="J46" t="n">
-        <v>40.54582248624333</v>
+        <v>42.22720179044503</v>
       </c>
       <c r="K46" t="n">
-        <v>66.62924152940589</v>
+        <v>69.39226422552235</v>
       </c>
       <c r="L46" t="n">
-        <v>85.26248951266858</v>
+        <v>88.79820728827801</v>
       </c>
       <c r="M46" t="n">
-        <v>89.8973405079457</v>
+        <v>93.62525915811283</v>
       </c>
       <c r="N46" t="n">
-        <v>87.75978268110254</v>
+        <v>91.39905975807659</v>
       </c>
       <c r="O46" t="n">
-        <v>81.06036363843532</v>
+        <v>84.42182505308467</v>
       </c>
       <c r="P46" t="n">
-        <v>69.36114470322502</v>
+        <v>72.23745565386143</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.0220613245194</v>
+        <v>50.01346993593791</v>
       </c>
       <c r="R46" t="n">
-        <v>25.78624636967461</v>
+        <v>26.85556642092594</v>
       </c>
       <c r="S46" t="n">
-        <v>9.994386229410884</v>
+        <v>10.40883963382835</v>
       </c>
       <c r="T46" t="n">
-        <v>2.450371167356868</v>
+        <v>2.551984678090415</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03128133405136431</v>
+        <v>0.0325785278054096</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_11_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_11_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49315.33618110048</v>
+        <v>-72218.37426777052</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12091080.90725871</v>
+        <v>12315467.80117821</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21770861.22962646</v>
+        <v>21125208.64972574</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4077120.222780793</v>
+        <v>4309411.359304619</v>
       </c>
     </row>
     <row r="11">
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>47.17491684713</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>44.13817113907068</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
     </row>
     <row r="26">
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>47.17491684713</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>44.13817113907068</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>21.42996140647366</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>48.29264240410291</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>48.29264240410291</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>47.17491684713</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>44.13817113907068</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>48.29264240410291</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>21.42996140647366</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>44.13817113907068</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>47.17491684713</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>48.29264240410291</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>47.17491684713</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>44.13817113907068</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>48.29264240410291</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>42.76295613475413</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>45.2586634086407</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>45.2586634086407</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>60.70491316255564</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>108.7695436954877</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>156.8341742284198</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>21.98523685908303</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>70.04986739201513</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>118.1144979249472</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>166.1791284578793</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>51.94864108104782</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>45.2586634086407</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>45.2586634086407</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>60.70491316255564</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>108.7695436954877</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>156.8341742284198</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>49.0484881743911</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>97.1131187073232</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>118.1144979249472</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>166.1791284578793</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>123.6115106585872</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>74.57097343490383</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>74.57097343490383</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.57097343490383</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>25.53043621122043</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>25.53043621122043</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>25.53043621122043</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>19.33026030203067</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>67.39489083496277</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>115.4595213678949</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>49.0484881743911</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>97.1131187073232</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>118.1144979249472</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>166.1791284578793</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>19.33026030203067</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>67.39489083496277</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>115.4595213678949</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>49.0484881743911</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>97.1131187073232</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>145.1777492402553</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>193.2423797731874</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>51.94864108104782</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>100.0132716139799</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>148.077902146912</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>21.98523685908303</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>70.04986739201513</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>118.1144979249472</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>166.1791284578793</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>96.11945295841946</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>47.07891573473606</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>19.33026030203067</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>67.39489083496277</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>115.4595213678949</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>49.0484881743911</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>97.1131187073232</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>145.1777492402553</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>193.2423797731874</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>123.6115106585872</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>74.57097343490383</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>25.53043621122043</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>25.53043621122043</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>51.94864108104782</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>100.0132716139799</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>172.6520478822706</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>19.33026030203067</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>67.39489083496277</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>115.4595213678949</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>152.8258745452613</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>49.0484881743911</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>97.1131187073232</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>145.1777492402553</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>166.1791284578793</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>145.1599901821029</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.6165161541997</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>100.5759789305163</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>51.5354417068329</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>49.0484881743911</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>97.1131187073232</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>145.1777492402553</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>166.1791284578793</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>150.7455318683137</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>101.7049946446303</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>52.66445742094695</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>50.00663580698998</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>98.07126633992208</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>146.1358968728542</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>194.2005274057863</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>151.0056222191659</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>101.9650849954825</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>52.92454777179913</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>3.884010548115725</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>98.41525156930325</v>
+        <v>89.76036546048012</v>
       </c>
       <c r="K2" t="n">
-        <v>97.52919776222207</v>
+        <v>84.55776703287157</v>
       </c>
       <c r="L2" t="n">
-        <v>84.65094969160234</v>
+        <v>68.55874285947689</v>
       </c>
       <c r="M2" t="n">
-        <v>63.00089454090767</v>
+        <v>45.0952138038613</v>
       </c>
       <c r="N2" t="n">
-        <v>59.47641268871214</v>
+        <v>41.28099931752746</v>
       </c>
       <c r="O2" t="n">
-        <v>69.29510178405982</v>
+        <v>52.11368889882763</v>
       </c>
       <c r="P2" t="n">
-        <v>93.12002459555268</v>
+        <v>78.45608620404292</v>
       </c>
       <c r="Q2" t="n">
-        <v>117.3721168894014</v>
+        <v>106.3601098520762</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8057,28 +8057,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>77.14817768641285</v>
+        <v>71.99338681190339</v>
       </c>
       <c r="K3" t="n">
-        <v>54.88786293308858</v>
+        <v>46.07750428554137</v>
       </c>
       <c r="L3" t="n">
-        <v>28.18282082555037</v>
+        <v>16.33620635813517</v>
       </c>
       <c r="M3" t="n">
-        <v>13.82444031476771</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21.88313163507588</v>
+        <v>8.901750057177253</v>
       </c>
       <c r="P3" t="n">
-        <v>36.60328338528051</v>
+        <v>26.18458021020075</v>
       </c>
       <c r="Q3" t="n">
-        <v>73.63117054633832</v>
+        <v>66.6665433882805</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8139,22 +8139,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K4" t="n">
-        <v>77.82929286268265</v>
+        <v>72.51491935620854</v>
       </c>
       <c r="L4" t="n">
-        <v>70.14201962134344</v>
+        <v>63.34145120781625</v>
       </c>
       <c r="M4" t="n">
-        <v>70.74600996413862</v>
+        <v>63.57576408212509</v>
       </c>
       <c r="N4" t="n">
-        <v>61.32535548916809</v>
+        <v>54.32560202794129</v>
       </c>
       <c r="O4" t="n">
-        <v>76.6492064337699</v>
+        <v>70.18380116939908</v>
       </c>
       <c r="P4" t="n">
-        <v>84.35979105369728</v>
+        <v>78.82751991675428</v>
       </c>
       <c r="Q4" t="n">
         <v>67.95667671286152</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8.842533845285175</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P11" t="n">
         <v>41.52515647939825</v>
@@ -8771,7 +8771,7 @@
         <v>59.01111598880918</v>
       </c>
       <c r="K12" t="n">
-        <v>23.88873566319982</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>53.9007658016241</v>
       </c>
       <c r="P13" t="n">
-        <v>64.89457017833918</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q13" t="n">
         <v>67.95667671286152</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>8.842533845285203</v>
+        <v>8.842533845285175</v>
       </c>
       <c r="P14" t="n">
         <v>41.52515647939825</v>
@@ -9008,7 +9008,7 @@
         <v>59.01111598880918</v>
       </c>
       <c r="K15" t="n">
-        <v>23.88873566319981</v>
+        <v>23.88873566319982</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>53.9007658016241</v>
       </c>
       <c r="P16" t="n">
-        <v>64.89457017833917</v>
+        <v>64.89457017833918</v>
       </c>
       <c r="Q16" t="n">
         <v>67.95667671286152</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8.842533845285175</v>
+        <v>8.842533845285203</v>
       </c>
       <c r="P20" t="n">
         <v>41.52515647939825</v>
@@ -9482,7 +9482,7 @@
         <v>59.01111598880918</v>
       </c>
       <c r="K21" t="n">
-        <v>23.88873566319982</v>
+        <v>23.88873566319981</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9576,7 +9576,7 @@
         <v>53.9007658016241</v>
       </c>
       <c r="P22" t="n">
-        <v>64.89457017833918</v>
+        <v>64.89457017833917</v>
       </c>
       <c r="Q22" t="n">
         <v>67.95667671286152</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>67.9631523158304</v>
+        <v>86.28854935083321</v>
       </c>
       <c r="K23" t="n">
-        <v>51.88939487364996</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L23" t="n">
-        <v>28.03073846089299</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,13 +9652,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.62651965517443</v>
+        <v>48.76815227654424</v>
       </c>
       <c r="R23" t="n">
         <v>68.34507666790174</v>
@@ -9716,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>59.01111598880918</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K24" t="n">
-        <v>23.88873566319981</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>49.12622445994228</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9798,22 +9798,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K25" t="n">
-        <v>59.1307418414051</v>
+        <v>93.27128277943117</v>
       </c>
       <c r="L25" t="n">
-        <v>46.21431199990579</v>
+        <v>74.3635070417416</v>
       </c>
       <c r="M25" t="n">
-        <v>45.51759718949943</v>
+        <v>74.62605641808923</v>
       </c>
       <c r="N25" t="n">
-        <v>36.69681798203466</v>
+        <v>66.26755673132104</v>
       </c>
       <c r="O25" t="n">
-        <v>53.9007658016241</v>
+        <v>36.37022436798858</v>
       </c>
       <c r="P25" t="n">
-        <v>64.89457017833917</v>
+        <v>49.89416348724792</v>
       </c>
       <c r="Q25" t="n">
         <v>67.95667671286152</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>67.9631523158304</v>
+        <v>86.28854935083321</v>
       </c>
       <c r="K26" t="n">
-        <v>51.88939487364996</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L26" t="n">
-        <v>28.03073846089299</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.62651965517443</v>
+        <v>48.76815227654424</v>
       </c>
       <c r="R26" t="n">
         <v>68.34507666790174</v>
@@ -9953,10 +9953,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>59.01111598880918</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K27" t="n">
-        <v>23.88873566319981</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>49.12622445994228</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10035,22 +10035,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K28" t="n">
-        <v>59.1307418414051</v>
+        <v>44.72115092798461</v>
       </c>
       <c r="L28" t="n">
-        <v>46.21431199990579</v>
+        <v>74.3635070417416</v>
       </c>
       <c r="M28" t="n">
-        <v>45.51759718949943</v>
+        <v>74.62605641808923</v>
       </c>
       <c r="N28" t="n">
-        <v>36.69681798203466</v>
+        <v>66.26755673132104</v>
       </c>
       <c r="O28" t="n">
-        <v>53.9007658016241</v>
+        <v>84.92035621943515</v>
       </c>
       <c r="P28" t="n">
-        <v>64.89457017833917</v>
+        <v>49.89416348724792</v>
       </c>
       <c r="Q28" t="n">
         <v>67.95667671286152</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>67.9631523158304</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K29" t="n">
-        <v>51.88939487364996</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L29" t="n">
-        <v>28.03073846089299</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>8.842533845285175</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.62651965517443</v>
+        <v>90.56073092353917</v>
       </c>
       <c r="R29" t="n">
         <v>68.34507666790174</v>
@@ -10190,10 +10190,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>59.01111598880918</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K30" t="n">
-        <v>23.88873566319982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>49.12622445994228</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10272,22 +10272,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K31" t="n">
-        <v>59.1307418414051</v>
+        <v>44.72115092798461</v>
       </c>
       <c r="L31" t="n">
-        <v>46.21431199990579</v>
+        <v>74.3635070417416</v>
       </c>
       <c r="M31" t="n">
-        <v>45.51759718949943</v>
+        <v>74.62605641808923</v>
       </c>
       <c r="N31" t="n">
-        <v>36.69681798203466</v>
+        <v>66.26755673132104</v>
       </c>
       <c r="O31" t="n">
-        <v>53.9007658016241</v>
+        <v>84.92035621943515</v>
       </c>
       <c r="P31" t="n">
-        <v>64.89457017833918</v>
+        <v>49.89416348724792</v>
       </c>
       <c r="Q31" t="n">
         <v>67.95667671286152</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.9631523158304</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K32" t="n">
-        <v>51.88939487364996</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L32" t="n">
-        <v>28.03073846089299</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.62651965517443</v>
+        <v>90.56073092353917</v>
       </c>
       <c r="R32" t="n">
         <v>68.34507666790174</v>
@@ -10427,10 +10427,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>59.01111598880918</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K33" t="n">
-        <v>23.88873566319981</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>49.12622445994228</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10509,22 +10509,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K34" t="n">
-        <v>59.1307418414051</v>
+        <v>44.72115092798461</v>
       </c>
       <c r="L34" t="n">
-        <v>46.21431199990579</v>
+        <v>76.32512853068891</v>
       </c>
       <c r="M34" t="n">
-        <v>45.51759718949943</v>
+        <v>74.62605641808923</v>
       </c>
       <c r="N34" t="n">
-        <v>36.69681798203466</v>
+        <v>66.26755673132102</v>
       </c>
       <c r="O34" t="n">
-        <v>53.9007658016241</v>
+        <v>82.95873473048781</v>
       </c>
       <c r="P34" t="n">
-        <v>64.89457017833917</v>
+        <v>49.89416348724792</v>
       </c>
       <c r="Q34" t="n">
         <v>67.95667671286152</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>67.9631523158304</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K35" t="n">
-        <v>51.88939487364996</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L35" t="n">
-        <v>28.03073846089299</v>
+        <v>30.98623788379728</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,13 +10600,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>8.842533845285175</v>
+        <v>10.80634076319762</v>
       </c>
       <c r="P35" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.62651965517443</v>
+        <v>48.76815227654424</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>59.01111598880918</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K36" t="n">
-        <v>23.88873566319982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.12622445994228</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10746,22 +10746,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K37" t="n">
-        <v>59.1307418414051</v>
+        <v>91.30966129048386</v>
       </c>
       <c r="L37" t="n">
-        <v>46.21431199990579</v>
+        <v>76.32512853068891</v>
       </c>
       <c r="M37" t="n">
-        <v>45.51759718949943</v>
+        <v>74.62605641808923</v>
       </c>
       <c r="N37" t="n">
-        <v>36.69681798203466</v>
+        <v>66.26755673132104</v>
       </c>
       <c r="O37" t="n">
-        <v>53.9007658016241</v>
+        <v>36.37022436798858</v>
       </c>
       <c r="P37" t="n">
-        <v>64.89457017833918</v>
+        <v>49.89416348724792</v>
       </c>
       <c r="Q37" t="n">
         <v>67.95667671286152</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>67.9631523158304</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K38" t="n">
-        <v>51.88939487364996</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L38" t="n">
-        <v>28.03073846089299</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>8.842533845285175</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q38" t="n">
-        <v>78.62651965517443</v>
+        <v>90.56073092353917</v>
       </c>
       <c r="R38" t="n">
         <v>68.34507666790174</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>59.01111598880918</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K39" t="n">
-        <v>23.88873566319982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.12622445994228</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -10983,22 +10983,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K40" t="n">
-        <v>59.1307418414051</v>
+        <v>93.27128277943117</v>
       </c>
       <c r="L40" t="n">
-        <v>46.21431199990579</v>
+        <v>76.32512853068891</v>
       </c>
       <c r="M40" t="n">
-        <v>45.51759718949943</v>
+        <v>72.66443492914192</v>
       </c>
       <c r="N40" t="n">
-        <v>36.69681798203466</v>
+        <v>17.71742487987446</v>
       </c>
       <c r="O40" t="n">
-        <v>53.9007658016241</v>
+        <v>36.37022436798858</v>
       </c>
       <c r="P40" t="n">
-        <v>64.89457017833918</v>
+        <v>98.44429533869449</v>
       </c>
       <c r="Q40" t="n">
         <v>67.95667671286152</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>67.9631523158304</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K41" t="n">
-        <v>51.88939487364996</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L41" t="n">
-        <v>28.03073846089299</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>8.842533845285203</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>41.52515647939825</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.62651965517443</v>
+        <v>90.56073092353917</v>
       </c>
       <c r="R41" t="n">
         <v>68.34507666790174</v>
@@ -11138,10 +11138,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>59.01111598880918</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K42" t="n">
-        <v>23.88873566319981</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>49.12622445994228</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11220,22 +11220,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K43" t="n">
-        <v>59.1307418414051</v>
+        <v>44.72115092798461</v>
       </c>
       <c r="L43" t="n">
-        <v>46.21431199990579</v>
+        <v>27.77499667924235</v>
       </c>
       <c r="M43" t="n">
-        <v>45.51759718949943</v>
+        <v>72.66443492914192</v>
       </c>
       <c r="N43" t="n">
-        <v>36.69681798203466</v>
+        <v>66.26755673132104</v>
       </c>
       <c r="O43" t="n">
-        <v>53.9007658016241</v>
+        <v>84.92035621943515</v>
       </c>
       <c r="P43" t="n">
-        <v>64.89457017833917</v>
+        <v>98.44429533869449</v>
       </c>
       <c r="Q43" t="n">
         <v>67.95667671286152</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>63.5088548808309</v>
+        <v>44.49597070383828</v>
       </c>
       <c r="K44" t="n">
-        <v>45.21355767607923</v>
+        <v>16.71817287654906</v>
       </c>
       <c r="L44" t="n">
-        <v>19.74877209940095</v>
+        <v>30.98623788379728</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,13 +11311,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>10.80634076319762</v>
       </c>
       <c r="P44" t="n">
-        <v>33.97825842169817</v>
+        <v>1.764805961346667</v>
       </c>
       <c r="Q44" t="n">
-        <v>72.95911351212311</v>
+        <v>48.76815227654424</v>
       </c>
       <c r="R44" t="n">
         <v>68.34507666790174</v>
@@ -11375,10 +11375,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>56.35816695151578</v>
+        <v>45.03422338699515</v>
       </c>
       <c r="K45" t="n">
-        <v>19.35442320295975</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.54183057008632</v>
+        <v>30.24207412879721</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -11457,22 +11457,22 @@
         <v>34.98169097563226</v>
       </c>
       <c r="K46" t="n">
-        <v>56.39566249074963</v>
+        <v>44.72115092798461</v>
       </c>
       <c r="L46" t="n">
-        <v>42.71435208592931</v>
+        <v>27.77499667924235</v>
       </c>
       <c r="M46" t="n">
-        <v>41.82738019080209</v>
+        <v>72.66443492914192</v>
       </c>
       <c r="N46" t="n">
-        <v>33.09434609552578</v>
+        <v>66.26755673132104</v>
       </c>
       <c r="O46" t="n">
-        <v>50.57329993746204</v>
+        <v>84.92035621943515</v>
       </c>
       <c r="P46" t="n">
-        <v>62.04734829405747</v>
+        <v>98.44429533869449</v>
       </c>
       <c r="Q46" t="n">
         <v>67.95667671286152</v>
@@ -22561,13 +22561,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G2" t="n">
-        <v>413.934522038312</v>
+        <v>413.8325483879333</v>
       </c>
       <c r="H2" t="n">
-        <v>328.7194610210322</v>
+        <v>327.6751233740921</v>
       </c>
       <c r="I2" t="n">
-        <v>169.7466255189538</v>
+        <v>165.8152863627317</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>84.04458539159593</v>
+        <v>77.63898307599939</v>
       </c>
       <c r="S2" t="n">
-        <v>184.8949060317757</v>
+        <v>182.5711814737726</v>
       </c>
       <c r="T2" t="n">
-        <v>218.936751863861</v>
+        <v>218.4903622093286</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4041441073029</v>
+        <v>251.3959862152726</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -22640,13 +22640,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5308365967838</v>
+        <v>135.4762758837533</v>
       </c>
       <c r="H3" t="n">
-        <v>105.7072230423724</v>
+        <v>105.1802814191576</v>
       </c>
       <c r="I3" t="n">
-        <v>69.55120651446384</v>
+        <v>67.67269073688161</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>64.12462538166871</v>
+        <v>60.73707514632421</v>
       </c>
       <c r="S3" t="n">
-        <v>159.8159900855784</v>
+        <v>158.8025487711757</v>
       </c>
       <c r="T3" t="n">
-        <v>196.3979207416475</v>
+        <v>196.1780027799153</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6247840666579</v>
+        <v>224.6211945460638</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
@@ -22719,16 +22719,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4767994368456</v>
+        <v>167.431057567854</v>
       </c>
       <c r="H4" t="n">
-        <v>157.9639981506375</v>
+        <v>157.5573113517852</v>
       </c>
       <c r="I4" t="n">
-        <v>141.344840945473</v>
+        <v>139.9692581943449</v>
       </c>
       <c r="J4" t="n">
-        <v>59.65462775411975</v>
+        <v>56.42067761641638</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>45.19520876274868</v>
+        <v>41.36495098746441</v>
       </c>
       <c r="R4" t="n">
-        <v>154.8306309999973</v>
+        <v>152.7739102360676</v>
       </c>
       <c r="S4" t="n">
-        <v>215.1636118833841</v>
+        <v>214.366455857413</v>
       </c>
       <c r="T4" t="n">
-        <v>226.5687290657497</v>
+        <v>226.3732865346039</v>
       </c>
       <c r="U4" t="n">
-        <v>286.0297546005226</v>
+        <v>286.0272595894867</v>
       </c>
       <c r="V4" t="n">
         <v>252.9363510669392</v>
@@ -24217,16 +24217,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>360.1189466334108</v>
       </c>
       <c r="G23" t="n">
-        <v>413.5757291341046</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H23" t="n">
-        <v>325.0449731908182</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I23" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>61.50656062267781</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>176.7189127271495</v>
+        <v>121.8681472759943</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3661359256932</v>
+        <v>167.6056464842203</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24299,13 +24299,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H24" t="n">
-        <v>103.853186096171</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I24" t="n">
-        <v>62.94167425847812</v>
+        <v>15.0852402478482</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>52.20557587647965</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S24" t="n">
-        <v>156.2502105818714</v>
+        <v>153.5023279316378</v>
       </c>
       <c r="T24" t="n">
-        <v>195.6241423794499</v>
+        <v>195.0278486000958</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>183.3585991882086</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>201.4392148985535</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>155.9114977570317</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -24378,16 +24378,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.315857291905</v>
+        <v>167.1918310790352</v>
       </c>
       <c r="H25" t="n">
-        <v>156.5330761710749</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I25" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J25" t="n">
-        <v>48.2760181068212</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,31 +24408,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.71849878958847</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R25" t="n">
-        <v>147.5940869193057</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S25" t="n">
-        <v>212.3588292301925</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T25" t="n">
-        <v>225.8810671737309</v>
+        <v>225.3511369914689</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0209759380713</v>
+        <v>237.4640790204682</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>237.542445035969</v>
       </c>
       <c r="X25" t="n">
-        <v>226.1403599323093</v>
+        <v>177.5902280808627</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>175.9857177330141</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>336.541493144265</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>318.4349638274961</v>
       </c>
       <c r="D26" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>334.5679039038409</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.5757291341046</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H26" t="n">
-        <v>325.0449731908182</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I26" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>61.50656062267781</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>176.7189127271495</v>
+        <v>170.4182791274409</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3661359256932</v>
+        <v>216.1557783356668</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>116.8219937588983</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -24536,13 +24536,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H27" t="n">
-        <v>103.853186096171</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I27" t="n">
-        <v>62.94167425847812</v>
+        <v>9.298064531155767</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>52.20557587647965</v>
+        <v>0.2574894473436657</v>
       </c>
       <c r="S27" t="n">
-        <v>156.2502105818714</v>
+        <v>104.9521960801912</v>
       </c>
       <c r="T27" t="n">
-        <v>195.6241423794499</v>
+        <v>195.0278486000958</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
@@ -24603,10 +24603,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
-        <v>167.3365529312023</v>
+        <v>118.7864210797558</v>
       </c>
       <c r="D28" t="n">
-        <v>149.0055665145194</v>
+        <v>100.4554346630728</v>
       </c>
       <c r="E28" t="n">
         <v>146.9746241731992</v>
@@ -24615,16 +24615,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
-        <v>167.315857291905</v>
+        <v>118.6416992275886</v>
       </c>
       <c r="H28" t="n">
-        <v>156.5330761710749</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I28" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J28" t="n">
-        <v>48.2760181068212</v>
+        <v>18.07740345045152</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.71849878958847</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>147.5940869193057</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S28" t="n">
-        <v>212.3588292301925</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T28" t="n">
-        <v>225.8810671737309</v>
+        <v>225.3511369914689</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0142108719148</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -24688,19 +24688,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>334.5679039038409</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>413.5757291341046</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H29" t="n">
-        <v>325.0449731908182</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I29" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>61.50656062267781</v>
+        <v>1.375215004316551</v>
       </c>
       <c r="S29" t="n">
-        <v>176.7189127271495</v>
+        <v>121.8681472759943</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3661359256932</v>
+        <v>167.6056464842203</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
@@ -24764,7 +24764,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
-        <v>146.1124235746456</v>
+        <v>97.562291723199</v>
       </c>
       <c r="E30" t="n">
         <v>156.0334337071738</v>
@@ -24773,13 +24773,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H30" t="n">
-        <v>103.853186096171</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I30" t="n">
-        <v>62.94167425847812</v>
+        <v>57.84819638260233</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,19 +24806,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>52.20557587647965</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>156.2502105818714</v>
+        <v>153.5023279316378</v>
       </c>
       <c r="T30" t="n">
-        <v>195.6241423794499</v>
+        <v>146.4777167486492</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>183.6160886355522</v>
       </c>
       <c r="W30" t="n">
         <v>249.98934675</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>118.7864210797558</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -24852,16 +24852,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>167.315857291905</v>
+        <v>124.428874944281</v>
       </c>
       <c r="H31" t="n">
-        <v>156.5330761710749</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I31" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J31" t="n">
-        <v>48.2760181068212</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.71849878958847</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R31" t="n">
-        <v>147.5940869193057</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S31" t="n">
-        <v>212.3588292301925</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T31" t="n">
-        <v>225.8810671737309</v>
+        <v>176.8010051400224</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0209759380713</v>
+        <v>237.4640790204682</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24931,13 +24931,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>413.5757291341046</v>
+        <v>364.7491021164612</v>
       </c>
       <c r="H32" t="n">
-        <v>325.0449731908182</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I32" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>61.50656062267781</v>
+        <v>44.13817113907068</v>
       </c>
       <c r="S32" t="n">
-        <v>176.7189127271495</v>
+        <v>127.6553229926868</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3661359256932</v>
+        <v>167.6056464842203</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V32" t="n">
         <v>328.5332215225193</v>
@@ -24985,7 +24985,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>338.1369398997892</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H33" t="n">
-        <v>103.853186096171</v>
+        <v>54.13177448408359</v>
       </c>
       <c r="I33" t="n">
-        <v>62.94167425847812</v>
+        <v>57.84819638260233</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>52.20557587647965</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>156.2502105818714</v>
+        <v>104.9521960801912</v>
       </c>
       <c r="T33" t="n">
-        <v>195.6241423794499</v>
+        <v>146.4777167486492</v>
       </c>
       <c r="U33" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -25080,7 +25080,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D34" t="n">
-        <v>149.0055665145194</v>
+        <v>100.4554346630728</v>
       </c>
       <c r="E34" t="n">
         <v>146.9746241731992</v>
@@ -25089,16 +25089,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.315857291905</v>
+        <v>167.1918310790352</v>
       </c>
       <c r="H34" t="n">
-        <v>156.5330761710749</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I34" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J34" t="n">
-        <v>48.2760181068212</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.71849878958847</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R34" t="n">
-        <v>147.5940869193057</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S34" t="n">
-        <v>212.3588292301925</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T34" t="n">
-        <v>225.8810671737309</v>
+        <v>225.3511369914689</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0209759380713</v>
+        <v>243.2512547371607</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>204.3862192154926</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>237.542445035969</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25159,22 +25159,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>308.0546009031518</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>334.5679039038409</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G35" t="n">
-        <v>413.5757291341046</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H35" t="n">
-        <v>325.0449731908182</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I35" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>61.50656062267781</v>
+        <v>1.375215004316551</v>
       </c>
       <c r="S35" t="n">
-        <v>176.7189127271495</v>
+        <v>170.4182791274409</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3661359256932</v>
+        <v>216.1557783356668</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3754406749663</v>
+        <v>202.803189210224</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>116.8219937588983</v>
       </c>
       <c r="C36" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>97.562291723199</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>107.4833018557273</v>
       </c>
       <c r="F36" t="n">
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H36" t="n">
-        <v>103.853186096171</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I36" t="n">
-        <v>62.94167425847812</v>
+        <v>57.84819638260233</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.20557587647965</v>
+        <v>43.02044558209779</v>
       </c>
       <c r="S36" t="n">
-        <v>156.2502105818714</v>
+        <v>153.5023279316378</v>
       </c>
       <c r="T36" t="n">
-        <v>195.6241423794499</v>
+        <v>152.2648924653417</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -25326,16 +25326,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>167.315857291905</v>
+        <v>167.1918310790352</v>
       </c>
       <c r="H37" t="n">
-        <v>156.5330761710749</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I37" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J37" t="n">
-        <v>48.2760181068212</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,22 +25356,22 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.71849878958847</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R37" t="n">
-        <v>147.5940869193057</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S37" t="n">
-        <v>212.3588292301925</v>
+        <v>161.6472587417329</v>
       </c>
       <c r="T37" t="n">
-        <v>225.8810671737309</v>
+        <v>176.8010051400224</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0209759380713</v>
+        <v>237.4640790204682</v>
       </c>
       <c r="V37" t="n">
-        <v>252.9363510669392</v>
+        <v>210.173394932185</v>
       </c>
       <c r="W37" t="n">
         <v>286.0925768874155</v>
@@ -25393,7 +25393,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>318.4349638274961</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -25405,13 +25405,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.5757291341046</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H38" t="n">
-        <v>325.0449731908182</v>
+        <v>275.0384002228756</v>
       </c>
       <c r="I38" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>61.50656062267781</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>176.7189127271495</v>
+        <v>121.8681472759943</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3661359256932</v>
+        <v>216.1557783356668</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V38" t="n">
         <v>328.5332215225193</v>
@@ -25472,7 +25472,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>122.7329415232981</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
@@ -25484,13 +25484,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H39" t="n">
-        <v>103.853186096171</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I39" t="n">
-        <v>62.94167425847812</v>
+        <v>57.84819638260233</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,22 +25517,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>52.20557587647965</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>156.2502105818714</v>
+        <v>104.9521960801912</v>
       </c>
       <c r="T39" t="n">
-        <v>195.6241423794499</v>
+        <v>195.0278486000958</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6121543871878</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>201.4392148985535</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -25554,25 +25554,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>149.0055665145194</v>
+        <v>100.4554346630728</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>98.42449232175261</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>97.60888955835793</v>
       </c>
       <c r="G40" t="n">
-        <v>167.315857291905</v>
+        <v>167.1918310790352</v>
       </c>
       <c r="H40" t="n">
-        <v>156.5330761710749</v>
+        <v>134.000408981086</v>
       </c>
       <c r="I40" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J40" t="n">
-        <v>48.2760181068212</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.71849878958847</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>147.5940869193057</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S40" t="n">
-        <v>212.3588292301925</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T40" t="n">
-        <v>225.8810671737309</v>
+        <v>225.3511369914689</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0142108719148</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
@@ -25636,19 +25636,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>334.5679039038409</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>413.5757291341046</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H41" t="n">
-        <v>325.0449731908182</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I41" t="n">
-        <v>155.914262079498</v>
+        <v>145.2546821846975</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,19 +25675,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>61.50656062267781</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>176.7189127271495</v>
+        <v>121.8681472759943</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3661359256932</v>
+        <v>216.1557783356668</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3754406749663</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V41" t="n">
-        <v>328.5332215225193</v>
+        <v>281.3583046753893</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25709,7 +25709,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>122.4754520759544</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -25721,13 +25721,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3388654688392</v>
+        <v>135.1909275126991</v>
       </c>
       <c r="H42" t="n">
-        <v>103.853186096171</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I42" t="n">
-        <v>62.94167425847812</v>
+        <v>57.84819638260233</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.20557587647965</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>156.2502105818714</v>
+        <v>105.2096855275349</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6241423794499</v>
+        <v>195.0278486000958</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6121543871878</v>
+        <v>176.0522897754689</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -25788,7 +25788,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C43" t="n">
-        <v>167.3365529312023</v>
+        <v>124.5735967964482</v>
       </c>
       <c r="D43" t="n">
         <v>149.0055665145194</v>
@@ -25797,19 +25797,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>97.60888955835793</v>
       </c>
       <c r="G43" t="n">
-        <v>167.315857291905</v>
+        <v>118.6416992275886</v>
       </c>
       <c r="H43" t="n">
-        <v>156.5330761710749</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I43" t="n">
-        <v>136.5048717139874</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J43" t="n">
-        <v>48.2760181068212</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.71849878958847</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R43" t="n">
-        <v>147.5940869193057</v>
+        <v>93.46728553282171</v>
       </c>
       <c r="S43" t="n">
-        <v>212.3588292301925</v>
+        <v>210.1973905931794</v>
       </c>
       <c r="T43" t="n">
-        <v>225.8810671737309</v>
+        <v>225.3511369914689</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0209759380713</v>
+        <v>286.0142108719148</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -25879,13 +25879,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>413.5232476844809</v>
+        <v>413.2992339679078</v>
       </c>
       <c r="H44" t="n">
-        <v>324.5074975448595</v>
+        <v>322.2133170700056</v>
       </c>
       <c r="I44" t="n">
-        <v>153.8909709928803</v>
+        <v>98.07976533756749</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>58.20987276275306</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>175.5229916938495</v>
+        <v>121.8681472759943</v>
       </c>
       <c r="T44" t="n">
-        <v>217.1363983799654</v>
+        <v>167.6056464842203</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3712421589964</v>
+        <v>251.3533210616706</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
@@ -25958,13 +25958,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3107854177504</v>
+        <v>86.89828510859621</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5819919185507</v>
+        <v>102.4244168881865</v>
       </c>
       <c r="I45" t="n">
-        <v>61.97488302581699</v>
+        <v>57.84819638260233</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,22 +25991,22 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.46214954660056</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>155.7286359487097</v>
+        <v>153.5023279316378</v>
       </c>
       <c r="T45" t="n">
-        <v>195.5109600682632</v>
+        <v>146.4777167486492</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6103070154057</v>
+        <v>224.6024216269155</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>201.4392148985535</v>
       </c>
       <c r="X45" t="n">
         <v>204.4616296084783</v>
@@ -26037,16 +26037,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2923159203422</v>
+        <v>167.1918310790352</v>
       </c>
       <c r="H46" t="n">
-        <v>156.3237719766351</v>
+        <v>155.4303703875596</v>
       </c>
       <c r="I46" t="n">
-        <v>135.7969184673545</v>
+        <v>132.7750652396842</v>
       </c>
       <c r="J46" t="n">
-        <v>46.61164313733391</v>
+        <v>39.50736485692518</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,22 +26067,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.74722993991026</v>
+        <v>21.33299472828048</v>
       </c>
       <c r="R46" t="n">
-        <v>146.5355812488564</v>
+        <v>142.0174173842683</v>
       </c>
       <c r="S46" t="n">
-        <v>211.9485673275942</v>
+        <v>167.4344344584253</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7804813134173</v>
+        <v>176.8010051400224</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0196918632588</v>
+        <v>237.4640790204682</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>204.3862192154926</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355093.2440313045</v>
+        <v>353967.582751543</v>
       </c>
     </row>
     <row r="3">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>352073.5004289274</v>
+        <v>395953.931687695</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>352073.5004289274</v>
+        <v>395953.9316876951</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>352073.5004289274</v>
+        <v>395953.9316876951</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>352073.5004289274</v>
+        <v>395953.9316876951</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>352073.5004289274</v>
+        <v>395953.931687695</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>352073.5004289274</v>
+        <v>395953.931687695</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>352073.5004289274</v>
+        <v>395953.931687695</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352195.3512080333</v>
+        <v>395953.9316876951</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68444.35716004448</v>
+        <v>68961.0344745055</v>
       </c>
       <c r="C2" t="n">
-        <v>68961.03447450549</v>
+        <v>68961.03447450552</v>
       </c>
       <c r="D2" t="n">
         <v>69315.33669464638</v>
@@ -26325,37 +26325,37 @@
         <v>70262.2792752696</v>
       </c>
       <c r="F2" t="n">
-        <v>70262.27927526961</v>
+        <v>70262.2792752696</v>
       </c>
       <c r="G2" t="n">
-        <v>70262.2792752696</v>
+        <v>70262.27927526958</v>
       </c>
       <c r="H2" t="n">
         <v>70262.27927526958</v>
       </c>
       <c r="I2" t="n">
-        <v>70262.2792752696</v>
+        <v>79915.72225692384</v>
       </c>
       <c r="J2" t="n">
-        <v>70262.27927526958</v>
+        <v>79915.72225692384</v>
       </c>
       <c r="K2" t="n">
-        <v>70262.27927526958</v>
+        <v>79915.72225692381</v>
       </c>
       <c r="L2" t="n">
-        <v>70262.27927526961</v>
+        <v>79915.72225692382</v>
       </c>
       <c r="M2" t="n">
-        <v>70262.2792752696</v>
+        <v>79915.72225692382</v>
       </c>
       <c r="N2" t="n">
-        <v>70262.2792752696</v>
+        <v>79915.72225692382</v>
       </c>
       <c r="O2" t="n">
-        <v>70262.2792752696</v>
+        <v>79915.72225692384</v>
       </c>
       <c r="P2" t="n">
-        <v>70528.19085487777</v>
+        <v>79915.72225692384</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220581.1694567361</v>
+        <v>245024.1243283586</v>
       </c>
       <c r="C3" t="n">
-        <v>23098.28073304243</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>14896.67331995398</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>64683.20025210513</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>8688.935337042501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24278.85109108922</v>
+        <v>20655.91612476609</v>
       </c>
       <c r="C4" t="n">
-        <v>20655.91612476608</v>
+        <v>20655.91612476609</v>
       </c>
       <c r="D4" t="n">
-        <v>18282.08851693001</v>
+        <v>18282.08851693</v>
       </c>
       <c r="E4" t="n">
         <v>12472.48393179068</v>
@@ -26438,28 +26438,28 @@
         <v>12472.48393179068</v>
       </c>
       <c r="I4" t="n">
-        <v>12472.48393179068</v>
+        <v>9736.707766292195</v>
       </c>
       <c r="J4" t="n">
-        <v>12472.48393179068</v>
+        <v>9736.707766292195</v>
       </c>
       <c r="K4" t="n">
-        <v>12472.48393179068</v>
+        <v>9736.707766292193</v>
       </c>
       <c r="L4" t="n">
-        <v>12472.48393179068</v>
+        <v>9736.707766292195</v>
       </c>
       <c r="M4" t="n">
-        <v>12472.48393179068</v>
+        <v>9736.707766292195</v>
       </c>
       <c r="N4" t="n">
-        <v>12472.48393179068</v>
+        <v>9736.707766292195</v>
       </c>
       <c r="O4" t="n">
-        <v>12472.48393179068</v>
+        <v>9736.707766292195</v>
       </c>
       <c r="P4" t="n">
-        <v>11309.09540945729</v>
+        <v>9736.707766292195</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38617.84971036801</v>
+        <v>39170.82732295871</v>
       </c>
       <c r="C5" t="n">
         <v>39170.82732295871</v>
@@ -26490,28 +26490,28 @@
         <v>6935.893931658688</v>
       </c>
       <c r="I5" t="n">
-        <v>6935.893931658688</v>
+        <v>11387.10611072011</v>
       </c>
       <c r="J5" t="n">
-        <v>6935.893931658688</v>
+        <v>11387.10611072011</v>
       </c>
       <c r="K5" t="n">
-        <v>6935.893931658688</v>
+        <v>11387.10611072011</v>
       </c>
       <c r="L5" t="n">
-        <v>6935.893931658688</v>
+        <v>11387.10611072011</v>
       </c>
       <c r="M5" t="n">
-        <v>6935.893931658688</v>
+        <v>11387.10611072011</v>
       </c>
       <c r="N5" t="n">
-        <v>6935.893931658688</v>
+        <v>11387.10611072011</v>
       </c>
       <c r="O5" t="n">
-        <v>6935.893931658688</v>
+        <v>11387.10611072011</v>
       </c>
       <c r="P5" t="n">
-        <v>7220.487712605606</v>
+        <v>11387.10611072011</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-215033.5130981488</v>
+        <v>-250491.0656440758</v>
       </c>
       <c r="C6" t="n">
-        <v>-13963.98970626173</v>
+        <v>-5466.941315717235</v>
       </c>
       <c r="D6" t="n">
-        <v>-3413.446965023511</v>
+        <v>-17985.15412250972</v>
       </c>
       <c r="E6" t="n">
-        <v>13504.06046297962</v>
+        <v>-988.7348127879886</v>
       </c>
       <c r="F6" t="n">
-        <v>50853.90141182025</v>
+        <v>36361.10613605262</v>
       </c>
       <c r="G6" t="n">
-        <v>50853.90141182023</v>
+        <v>36361.10613605261</v>
       </c>
       <c r="H6" t="n">
-        <v>50853.90141182022</v>
+        <v>36361.10613605261</v>
       </c>
       <c r="I6" t="n">
-        <v>50853.90141182023</v>
+        <v>-19579.6335661567</v>
       </c>
       <c r="J6" t="n">
-        <v>50853.90141182022</v>
+        <v>45103.56668594843</v>
       </c>
       <c r="K6" t="n">
-        <v>50853.90141182022</v>
+        <v>45103.5666859484</v>
       </c>
       <c r="L6" t="n">
-        <v>50853.90141182025</v>
+        <v>45103.56668594842</v>
       </c>
       <c r="M6" t="n">
-        <v>50853.90141182023</v>
+        <v>45103.56668594842</v>
       </c>
       <c r="N6" t="n">
-        <v>50853.90141182023</v>
+        <v>45103.56668594842</v>
       </c>
       <c r="O6" t="n">
-        <v>50853.90141182023</v>
+        <v>45103.56668594843</v>
       </c>
       <c r="P6" t="n">
-        <v>43309.67239577237</v>
+        <v>45103.56668594843</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.9105371728443</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="C3" t="n">
         <v>254.2764827045282</v>
@@ -26758,28 +26758,28 @@
         <v>318.1602720944352</v>
       </c>
       <c r="I3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
       <c r="J3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
       <c r="K3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
       <c r="L3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
       <c r="M3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
       <c r="N3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
       <c r="O3" t="n">
-        <v>318.1602720944352</v>
+        <v>386.9384446858788</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2150326883306</v>
+        <v>386.9384446858788</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228.9105371728443</v>
+        <v>254.2764827045282</v>
       </c>
       <c r="C3" t="n">
-        <v>25.36594553168391</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>17.39424311133865</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>68.77817259144365</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>13.05476059389537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9202433655189716</v>
+        <v>1.0222170158976</v>
       </c>
       <c r="H2" t="n">
-        <v>9.42444236712117</v>
+        <v>10.4687800140613</v>
       </c>
       <c r="I2" t="n">
-        <v>35.47768234917019</v>
+        <v>39.40902150539227</v>
       </c>
       <c r="J2" t="n">
-        <v>78.10450534421588</v>
+        <v>86.75939145303902</v>
       </c>
       <c r="K2" t="n">
-        <v>117.058407006634</v>
+        <v>130.0298377359845</v>
       </c>
       <c r="L2" t="n">
-        <v>145.2213049041352</v>
+        <v>161.3135117362607</v>
       </c>
       <c r="M2" t="n">
-        <v>161.5866828556833</v>
+        <v>179.4923635927296</v>
       </c>
       <c r="N2" t="n">
-        <v>164.201324317964</v>
+        <v>182.3967376891487</v>
       </c>
       <c r="O2" t="n">
-        <v>155.0506543520847</v>
+        <v>172.2320672373169</v>
       </c>
       <c r="P2" t="n">
-        <v>132.3321462658351</v>
+        <v>146.9960846573449</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.3759307381869</v>
+        <v>110.387937775512</v>
       </c>
       <c r="R2" t="n">
-        <v>57.80623730928114</v>
+        <v>64.21183962487768</v>
       </c>
       <c r="S2" t="n">
-        <v>20.97004569176358</v>
+        <v>23.29377024976659</v>
       </c>
       <c r="T2" t="n">
-        <v>4.0283653325593</v>
+        <v>4.474754987091747</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0736194692415177</v>
+        <v>0.081777361271808</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4923736082585709</v>
+        <v>0.5469343212889852</v>
       </c>
       <c r="H3" t="n">
-        <v>4.755292479760408</v>
+        <v>5.282234102975201</v>
       </c>
       <c r="I3" t="n">
-        <v>16.95233695100782</v>
+        <v>18.83085272859007</v>
       </c>
       <c r="J3" t="n">
-        <v>46.51850831358718</v>
+        <v>51.67329918809664</v>
       </c>
       <c r="K3" t="n">
-        <v>79.50754006691143</v>
+        <v>88.31789871445865</v>
       </c>
       <c r="L3" t="n">
-        <v>106.907699459827</v>
+        <v>118.7543139272422</v>
       </c>
       <c r="M3" t="n">
-        <v>124.7562427592001</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N3" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O3" t="n">
-        <v>117.1482066982574</v>
+        <v>130.1295882761561</v>
       </c>
       <c r="P3" t="n">
-        <v>94.02176384369149</v>
+        <v>104.4404670187712</v>
       </c>
       <c r="Q3" t="n">
-        <v>62.85105918753266</v>
+        <v>69.81568634559048</v>
       </c>
       <c r="R3" t="n">
-        <v>30.57035437942251</v>
+        <v>33.95790461476701</v>
       </c>
       <c r="S3" t="n">
-        <v>9.145623820065993</v>
+        <v>10.15906513446865</v>
       </c>
       <c r="T3" t="n">
-        <v>1.984611166621169</v>
+        <v>2.204529128353409</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03239300054332704</v>
+        <v>0.03598252113743326</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4127894932625061</v>
+        <v>0.4585313622540673</v>
       </c>
       <c r="H4" t="n">
-        <v>3.670073858279375</v>
+        <v>4.07676065713162</v>
       </c>
       <c r="I4" t="n">
-        <v>12.41370585193064</v>
+        <v>13.78928860305868</v>
       </c>
       <c r="J4" t="n">
-        <v>29.18421717365919</v>
+        <v>32.41816731136255</v>
       </c>
       <c r="K4" t="n">
-        <v>47.95863385358934</v>
+        <v>53.27300736006344</v>
       </c>
       <c r="L4" t="n">
-        <v>61.37053975286388</v>
+        <v>68.17110816639106</v>
       </c>
       <c r="M4" t="n">
-        <v>64.70662938477629</v>
+        <v>71.87687526678982</v>
       </c>
       <c r="N4" t="n">
-        <v>63.16805036443428</v>
+        <v>70.16780382566108</v>
       </c>
       <c r="O4" t="n">
-        <v>58.3459185567768</v>
+        <v>64.81132382114764</v>
       </c>
       <c r="P4" t="n">
-        <v>49.92501289422163</v>
+        <v>55.45728403116462</v>
       </c>
       <c r="Q4" t="n">
-        <v>34.5654911130995</v>
+        <v>38.39574888838376</v>
       </c>
       <c r="R4" t="n">
-        <v>18.56051666978504</v>
+        <v>20.61723743371469</v>
       </c>
       <c r="S4" t="n">
-        <v>7.1937950780384</v>
+        <v>7.990951104009515</v>
       </c>
       <c r="T4" t="n">
-        <v>1.76373692575798</v>
+        <v>1.959179456903742</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02251579054159127</v>
+        <v>0.02501080157749461</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31834,7 +31834,7 @@
         <v>0.6843447362031247</v>
       </c>
       <c r="H12" t="n">
-        <v>6.609329425961758</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I12" t="n">
         <v>23.56186920699355</v>
@@ -31867,7 +31867,7 @@
         <v>42.48940388461157</v>
       </c>
       <c r="S12" t="n">
-        <v>12.71140332377294</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T12" t="n">
         <v>2.758389528818734</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H13" t="n">
         <v>5.100995837841931</v>
@@ -31937,7 +31937,7 @@
         <v>81.09435918892261</v>
       </c>
       <c r="P13" t="n">
-        <v>69.39023376957972</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q13" t="n">
         <v>48.04220108625971</v>
@@ -31952,7 +31952,7 @@
         <v>2.451398817776795</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32071,7 +32071,7 @@
         <v>0.6843447362031247</v>
       </c>
       <c r="H15" t="n">
-        <v>6.609329425961759</v>
+        <v>6.609329425961758</v>
       </c>
       <c r="I15" t="n">
         <v>23.56186920699355</v>
@@ -32104,7 +32104,7 @@
         <v>42.48940388461157</v>
       </c>
       <c r="S15" t="n">
-        <v>12.71140332377295</v>
+        <v>12.71140332377294</v>
       </c>
       <c r="T15" t="n">
         <v>2.758389528818734</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.5737316382030797</v>
       </c>
       <c r="H16" t="n">
         <v>5.100995837841931</v>
@@ -32174,7 +32174,7 @@
         <v>81.09435918892261</v>
       </c>
       <c r="P16" t="n">
-        <v>69.39023376957974</v>
+        <v>69.39023376957972</v>
       </c>
       <c r="Q16" t="n">
         <v>48.04220108625971</v>
@@ -32189,7 +32189,7 @@
         <v>2.451398817776795</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.0312944529928953</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32545,7 +32545,7 @@
         <v>0.6843447362031247</v>
       </c>
       <c r="H21" t="n">
-        <v>6.609329425961758</v>
+        <v>6.609329425961759</v>
       </c>
       <c r="I21" t="n">
         <v>23.56186920699355</v>
@@ -32578,7 +32578,7 @@
         <v>42.48940388461157</v>
       </c>
       <c r="S21" t="n">
-        <v>12.71140332377294</v>
+        <v>12.71140332377295</v>
       </c>
       <c r="T21" t="n">
         <v>2.758389528818734</v>
@@ -32621,7 +32621,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.5737316382030798</v>
       </c>
       <c r="H22" t="n">
         <v>5.100995837841931</v>
@@ -32648,7 +32648,7 @@
         <v>81.09435918892261</v>
       </c>
       <c r="P22" t="n">
-        <v>69.39023376957972</v>
+        <v>69.39023376957974</v>
       </c>
       <c r="Q22" t="n">
         <v>48.04220108625971</v>
@@ -32663,7 +32663,7 @@
         <v>2.451398817776795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.03129445299289529</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H23" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I23" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J23" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K23" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L23" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N23" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O23" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P23" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R23" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S23" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T23" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H24" t="n">
-        <v>6.609329425961759</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I24" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J24" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K24" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L24" t="n">
-        <v>135.0905202853774</v>
+        <v>153.3745872661524</v>
       </c>
       <c r="M24" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N24" t="n">
-        <v>128.05816928125</v>
+        <v>176.6083011326965</v>
       </c>
       <c r="O24" t="n">
-        <v>139.0313383333333</v>
+        <v>187.5814701847799</v>
       </c>
       <c r="P24" t="n">
-        <v>130.625047228972</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R24" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S24" t="n">
-        <v>12.71140332377295</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T24" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H25" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I25" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J25" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K25" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L25" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M25" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N25" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O25" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P25" t="n">
-        <v>69.39023376957974</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R25" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S25" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T25" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I26" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K26" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L26" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N26" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O26" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P26" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R26" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S26" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T26" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H27" t="n">
-        <v>6.609329425961759</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I27" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J27" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K27" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>135.0905202853774</v>
+        <v>180.7112047563626</v>
       </c>
       <c r="M27" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>149.2716836424864</v>
       </c>
       <c r="O27" t="n">
-        <v>139.0313383333333</v>
+        <v>187.5814701847799</v>
       </c>
       <c r="P27" t="n">
-        <v>130.625047228972</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R27" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S27" t="n">
-        <v>12.71140332377295</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T27" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H28" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I28" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J28" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K28" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L28" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M28" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N28" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O28" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P28" t="n">
-        <v>69.39023376957974</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R28" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S28" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T28" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I29" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K29" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L29" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N29" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O29" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P29" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R29" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S29" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T29" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H30" t="n">
-        <v>6.609329425961758</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I30" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J30" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K30" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L30" t="n">
-        <v>135.0905202853774</v>
+        <v>180.7112047563626</v>
       </c>
       <c r="M30" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N30" t="n">
-        <v>128.05816928125</v>
+        <v>149.2716836424864</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0313383333333</v>
+        <v>187.5814701847799</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R30" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S30" t="n">
-        <v>12.71140332377294</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T30" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H31" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I31" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J31" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K31" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L31" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M31" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N31" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O31" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P31" t="n">
-        <v>69.39023376957972</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R31" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S31" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T31" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H32" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I32" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K32" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L32" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N32" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O32" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P32" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R32" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S32" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T32" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H33" t="n">
-        <v>6.609329425961759</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I33" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J33" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K33" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>135.0905202853774</v>
+        <v>180.7112047563626</v>
       </c>
       <c r="M33" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N33" t="n">
-        <v>128.05816928125</v>
+        <v>176.6083011326965</v>
       </c>
       <c r="O33" t="n">
-        <v>139.0313383333333</v>
+        <v>187.5814701847799</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>131.592873120486</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R33" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S33" t="n">
-        <v>12.71140332377295</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T33" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H34" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I34" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J34" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K34" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L34" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M34" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N34" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O34" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P34" t="n">
-        <v>69.39023376957974</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R34" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S34" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T34" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H35" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I35" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K35" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L35" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N35" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P35" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R35" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S35" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T35" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H36" t="n">
-        <v>6.609329425961758</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I36" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J36" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K36" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L36" t="n">
-        <v>135.0905202853774</v>
+        <v>153.3745872661524</v>
       </c>
       <c r="M36" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N36" t="n">
-        <v>128.05816928125</v>
+        <v>176.6083011326965</v>
       </c>
       <c r="O36" t="n">
-        <v>139.0313383333333</v>
+        <v>187.5814701847799</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R36" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S36" t="n">
-        <v>12.71140332377294</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T36" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H37" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I37" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J37" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K37" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L37" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M37" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N37" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O37" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P37" t="n">
-        <v>69.39023376957972</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R37" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S37" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T37" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H38" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I38" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J38" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K38" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L38" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N38" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O38" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P38" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R38" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S38" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T38" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H39" t="n">
-        <v>6.609329425961758</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I39" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J39" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K39" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L39" t="n">
-        <v>135.0905202853774</v>
+        <v>180.7112047563626</v>
       </c>
       <c r="M39" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N39" t="n">
-        <v>128.05816928125</v>
+        <v>176.6083011326965</v>
       </c>
       <c r="O39" t="n">
-        <v>139.0313383333333</v>
+        <v>187.5814701847799</v>
       </c>
       <c r="P39" t="n">
-        <v>130.625047228972</v>
+        <v>131.592873120486</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R39" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S39" t="n">
-        <v>12.71140332377294</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T39" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5737316382030797</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H40" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I40" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J40" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K40" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L40" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M40" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N40" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O40" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P40" t="n">
-        <v>69.39023376957972</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R40" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S40" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T40" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0312944529928953</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.279036269726372</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09893019733521</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I41" t="n">
-        <v>49.31004578862599</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J41" t="n">
-        <v>108.5566045976887</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K41" t="n">
-        <v>162.6982098952061</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L41" t="n">
-        <v>201.8415161348446</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N41" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O41" t="n">
-        <v>215.5032222908594</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P41" t="n">
-        <v>183.9270143819896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1215279724138</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R41" t="n">
-        <v>80.34426207819926</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S41" t="n">
-        <v>29.14603899638972</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T41" t="n">
-        <v>5.598981270727195</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1023229015781097</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6843447362031247</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H42" t="n">
-        <v>6.609329425961759</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I42" t="n">
-        <v>23.56186920699355</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J42" t="n">
-        <v>64.65557001119085</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K42" t="n">
-        <v>110.5066673368002</v>
+        <v>134.395403</v>
       </c>
       <c r="L42" t="n">
-        <v>135.0905202853774</v>
+        <v>180.7112047563626</v>
       </c>
       <c r="M42" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N42" t="n">
-        <v>128.05816928125</v>
+        <v>176.6083011326965</v>
       </c>
       <c r="O42" t="n">
-        <v>139.0313383333333</v>
+        <v>160.2448526945697</v>
       </c>
       <c r="P42" t="n">
-        <v>130.625047228972</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.3560052739287</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R42" t="n">
-        <v>42.48940388461157</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S42" t="n">
-        <v>12.71140332377295</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T42" t="n">
-        <v>2.758389528818734</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04502268001336349</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5737316382030798</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H43" t="n">
-        <v>5.100995837841931</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I43" t="n">
-        <v>17.25367508341626</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J43" t="n">
-        <v>40.56282682095774</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K43" t="n">
-        <v>66.65718487486689</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L43" t="n">
-        <v>85.29824737430152</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M43" t="n">
-        <v>89.93504215941549</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N43" t="n">
-        <v>87.79658787156771</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O43" t="n">
-        <v>81.09435918892261</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P43" t="n">
-        <v>69.39023376957974</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.04220108625971</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R43" t="n">
-        <v>25.79706075047665</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S43" t="n">
-        <v>9.998577731230032</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T43" t="n">
-        <v>2.451398817776795</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03129445299289529</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.331517719350072</v>
+        <v>1.55553143592313</v>
       </c>
       <c r="H44" t="n">
-        <v>13.63640584329393</v>
+        <v>15.93058631814776</v>
       </c>
       <c r="I44" t="n">
-        <v>51.33333687524369</v>
+        <v>59.96962568342652</v>
       </c>
       <c r="J44" t="n">
-        <v>113.0109020326882</v>
+        <v>132.0237862096808</v>
       </c>
       <c r="K44" t="n">
-        <v>169.3740470927768</v>
+        <v>197.869431892307</v>
       </c>
       <c r="L44" t="n">
-        <v>210.1234824963366</v>
+        <v>245.4745270744395</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5875773965909</v>
+        <v>273.1377092480375</v>
       </c>
       <c r="N44" t="n">
-        <v>223.6777370066762</v>
+        <v>272.2278688581227</v>
       </c>
       <c r="O44" t="n">
-        <v>224.3457561361446</v>
+        <v>262.0895472243935</v>
       </c>
       <c r="P44" t="n">
-        <v>191.4739124396896</v>
+        <v>223.6873649000411</v>
       </c>
       <c r="Q44" t="n">
-        <v>143.7889341154651</v>
+        <v>167.979895351044</v>
       </c>
       <c r="R44" t="n">
-        <v>83.64094993812401</v>
+        <v>97.7126515618064</v>
       </c>
       <c r="S44" t="n">
-        <v>30.34196002968979</v>
+        <v>35.44667259609836</v>
       </c>
       <c r="T44" t="n">
-        <v>5.828718816454942</v>
+        <v>6.809338860753504</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1065214175480057</v>
+        <v>0.1244425148738504</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7124247872918809</v>
+        <v>0.8322826923432111</v>
       </c>
       <c r="H45" t="n">
-        <v>6.880523603582114</v>
+        <v>8.038098633946277</v>
       </c>
       <c r="I45" t="n">
-        <v>24.52866043965468</v>
+        <v>28.65534708286933</v>
       </c>
       <c r="J45" t="n">
-        <v>67.30851904848424</v>
+        <v>78.63246261300488</v>
       </c>
       <c r="K45" t="n">
-        <v>115.0409797970403</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>135.0905202853774</v>
+        <v>180.7112047563626</v>
       </c>
       <c r="M45" t="n">
-        <v>138.5806830739679</v>
+        <v>187.1308149254144</v>
       </c>
       <c r="N45" t="n">
-        <v>128.05816928125</v>
+        <v>176.6083011326965</v>
       </c>
       <c r="O45" t="n">
-        <v>139.0313383333333</v>
+        <v>160.2448526945697</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>158.9294906106962</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.94039916378466</v>
+        <v>106.2401556050738</v>
       </c>
       <c r="R45" t="n">
-        <v>44.23283021449065</v>
+        <v>51.67453417899343</v>
       </c>
       <c r="S45" t="n">
-        <v>13.23297795693471</v>
+        <v>15.45928597400656</v>
       </c>
       <c r="T45" t="n">
-        <v>2.871571840005431</v>
+        <v>3.354683308172854</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0468700517955185</v>
+        <v>0.0547554402857376</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.597273009765842</v>
+        <v>0.6977578510728962</v>
       </c>
       <c r="H46" t="n">
-        <v>5.310300032281762</v>
+        <v>6.203701621357209</v>
       </c>
       <c r="I46" t="n">
-        <v>17.96162833004914</v>
+        <v>20.98348155771946</v>
       </c>
       <c r="J46" t="n">
-        <v>42.22720179044503</v>
+        <v>49.33148007085376</v>
       </c>
       <c r="K46" t="n">
-        <v>69.39226422552235</v>
+        <v>81.06677578828737</v>
       </c>
       <c r="L46" t="n">
-        <v>88.79820728827801</v>
+        <v>103.737562694965</v>
       </c>
       <c r="M46" t="n">
-        <v>93.62525915811283</v>
+        <v>109.3767147822722</v>
       </c>
       <c r="N46" t="n">
-        <v>91.39905975807659</v>
+        <v>106.7759809737279</v>
       </c>
       <c r="O46" t="n">
-        <v>84.42182505308467</v>
+        <v>98.62490062255813</v>
       </c>
       <c r="P46" t="n">
-        <v>72.23745565386143</v>
+        <v>84.39064046067098</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.01346993593791</v>
+        <v>58.4277051475677</v>
       </c>
       <c r="R46" t="n">
-        <v>26.85556642092594</v>
+        <v>31.37373028551403</v>
       </c>
       <c r="S46" t="n">
-        <v>10.40883963382835</v>
+        <v>12.1600163682431</v>
       </c>
       <c r="T46" t="n">
-        <v>2.551984678090415</v>
+        <v>2.981329000038738</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0325785278054096</v>
+        <v>0.03805951914943075</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>41.79257864699493</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>15.60227247870196</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>18.28406698077506</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,16 +36518,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>41.79257864699493</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>15.60227247870196</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>45.62068447098522</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>21.2135143612364</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36758,16 +36758,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36837,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>15.60227247870196</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>41.79257864699493</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>45.62068447098522</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>21.2135143612364</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37074,22 +37074,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>15.60227247870196</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>41.79257864699493</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>45.62068447098522</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>0.9678258915140061</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>46.58851036249921</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>18.28406698077506</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37466,16 +37466,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>15.60227247870196</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>41.79257864699493</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>45.62068447098522</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.9678258915140061</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37718,7 +37718,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>15.60227247870196</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>37.74379108824891</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>41.79257864699493</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>45.62068447098522</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>21.21351436123638</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37946,16 +37946,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>45.62068447098522</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>21.21351436123638</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>28.30444338172418</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38183,16 +38183,16 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>46.58851036249924</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>48.55013185144657</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
